--- a/public/Reportes/comisiones/comisiones.xlsx
+++ b/public/Reportes/comisiones/comisiones.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>Delfiniti de México S.A. de C.V.</t>
   </si>
@@ -23,12 +23,15 @@
     <t>REPORTE DE COMISIONES</t>
   </si>
   <si>
-    <t>Del 22-08-2022 al 22-08-2022</t>
+    <t>Del 01-08-2022 al 22-08-2022</t>
   </si>
   <si>
     <t>#</t>
   </si>
   <si>
+    <t>COMISIONISTAS</t>
+  </si>
+  <si>
     <t>COM. BRUTA</t>
   </si>
   <si>
@@ -41,10 +44,64 @@
     <t>OBSERVACIONES</t>
   </si>
   <si>
+    <t>YESENIA LEON</t>
+  </si>
+  <si>
+    <t>JOVANI MACIEL</t>
+  </si>
+  <si>
+    <t>DIANA EVELYN VARGAS</t>
+  </si>
+  <si>
+    <t>SUNNY SIDE FONTAN</t>
+  </si>
+  <si>
+    <t>MOISES BAÑOS TORRES</t>
+  </si>
+  <si>
+    <t>JESUS TRAVENTURES</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>PROMOTORES CALLE</t>
+  </si>
+  <si>
+    <t>AGENCIA PARK ROYAL</t>
+  </si>
+  <si>
+    <t>LOCACION</t>
+  </si>
+  <si>
+    <t>VICTOR HUGO CALDERON</t>
+  </si>
+  <si>
+    <t>DIRECTO</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO TELLO</t>
+  </si>
+  <si>
+    <t>GRUPOS</t>
+  </si>
+  <si>
+    <t>AGENCIAS SIN CREDITO</t>
+  </si>
+  <si>
+    <t>CERRADORES</t>
+  </si>
+  <si>
     <t>SALVADOR HERNANDEZ ROMERO.</t>
   </si>
   <si>
-    <t>TOTAL</t>
+    <t>AGENCIA PGC ACAPULCO</t>
+  </si>
+  <si>
+    <t>OMAR CORIA GRUPOS</t>
+  </si>
+  <si>
+    <t>QUALTON CLUB</t>
   </si>
   <si>
     <t>TOTALES</t>
@@ -460,10 +517,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C11" sqref="C11:E11"/>
+      <selection activeCell="C144" sqref="C144:E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="8.83203125" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -549,18 +606,20 @@
       <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="C5" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -568,50 +627,2211 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11">
+        <v>238.0</v>
+      </c>
+      <c r="D6" s="11">
+        <v>9.52</v>
+      </c>
+      <c r="E6" s="11">
+        <v>190.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="11">
+        <v>158.4</v>
+      </c>
+      <c r="D7" s="11">
+        <v>6.34</v>
+      </c>
+      <c r="E7" s="11">
+        <v>126.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="11">
+        <v>79.2</v>
+      </c>
+      <c r="D8" s="11">
+        <v>3.17</v>
+      </c>
+      <c r="E8" s="11">
+        <v>63.36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="11">
+        <v>202.3</v>
+      </c>
+      <c r="D9" s="11">
+        <v>8.09</v>
+      </c>
+      <c r="E9" s="11">
+        <v>161.84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11">
+        <v>166.6</v>
+      </c>
+      <c r="D10" s="11">
+        <v>6.66</v>
+      </c>
+      <c r="E10" s="11">
+        <v>133.28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="11">
+        <v>205.92</v>
+      </c>
+      <c r="D11" s="11">
+        <v>8.24</v>
+      </c>
+      <c r="E11" s="11">
+        <v>164.73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="11">
+        <v>102.35</v>
+      </c>
+      <c r="D12" s="11">
+        <v>4.09</v>
+      </c>
+      <c r="E12" s="11">
+        <v>81.88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="C6" s="11">
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="11">
+        <v>158.4</v>
+      </c>
+      <c r="D13" s="11">
+        <v>6.34</v>
+      </c>
+      <c r="E13" s="11">
+        <v>126.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="11">
+        <v>202.3</v>
+      </c>
+      <c r="D14" s="11">
+        <v>8.09</v>
+      </c>
+      <c r="E14" s="11">
+        <v>161.84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="11">
+        <v>277.2</v>
+      </c>
+      <c r="D15" s="11">
+        <v>11.09</v>
+      </c>
+      <c r="E15" s="11">
+        <v>221.76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="11">
+        <f>SUM(C6:C15)</f>
+        <v>1790.67</v>
+      </c>
+      <c r="D16" s="11">
+        <f>SUM(D6:D15)</f>
+        <v>71.63</v>
+      </c>
+      <c r="E16" s="11">
+        <f>SUM(E6:E15)</f>
+        <v>1432.53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="11">
+        <v>178.2</v>
+      </c>
+      <c r="D19" s="11">
+        <v>7.13</v>
+      </c>
+      <c r="E19" s="11">
+        <v>142.56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="11">
+        <v>238.0</v>
+      </c>
+      <c r="D20" s="11">
+        <v>9.52</v>
+      </c>
+      <c r="E20" s="11">
+        <v>190.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="1">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="11">
+        <v>761.6</v>
+      </c>
+      <c r="D21" s="11">
+        <v>30.46</v>
+      </c>
+      <c r="E21" s="11">
+        <v>609.28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="1">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="D22" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="E22" s="11">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="1">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="11">
+        <v>404.6</v>
+      </c>
+      <c r="D23" s="11">
+        <v>16.18</v>
+      </c>
+      <c r="E23" s="11">
+        <v>323.68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="1">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="11">
+        <v>158.4</v>
+      </c>
+      <c r="D24" s="11">
+        <v>6.34</v>
+      </c>
+      <c r="E24" s="11">
+        <v>126.72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="B25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="11">
+        <f>SUM(C19:C24)</f>
+        <v>1740.8</v>
+      </c>
+      <c r="D25" s="11">
+        <f>SUM(D19:D24)</f>
+        <v>69.63</v>
+      </c>
+      <c r="E25" s="11">
+        <f>SUM(E19:E24)</f>
+        <v>1392.64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="11">
+        <v>158.4</v>
+      </c>
+      <c r="D28" s="11">
+        <v>6.34</v>
+      </c>
+      <c r="E28" s="11">
+        <v>126.72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="1">
+        <v>2</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="D29" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="E29" s="11">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="B30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="11">
+        <f>SUM(C28:C29)</f>
+        <v>158.4</v>
+      </c>
+      <c r="D30" s="11">
+        <f>SUM(D28:D29)</f>
+        <v>6.34</v>
+      </c>
+      <c r="E30" s="11">
+        <f>SUM(E28:E29)</f>
+        <v>126.72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="11">
+        <v>202.3</v>
+      </c>
+      <c r="D33" s="11">
+        <v>8.09</v>
+      </c>
+      <c r="E33" s="11">
+        <v>161.84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="1">
+        <v>2</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="11">
+        <v>79.2</v>
+      </c>
+      <c r="D34" s="11">
+        <v>3.17</v>
+      </c>
+      <c r="E34" s="11">
+        <v>63.36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="1">
+        <v>3</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="11">
+        <v>102.3</v>
+      </c>
+      <c r="D35" s="11">
+        <v>4.09</v>
+      </c>
+      <c r="E35" s="11">
+        <v>81.84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="B36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="11">
+        <f>SUM(C33:C35)</f>
+        <v>383.8</v>
+      </c>
+      <c r="D36" s="11">
+        <f>SUM(D33:D35)</f>
+        <v>15.35</v>
+      </c>
+      <c r="E36" s="11">
+        <f>SUM(E33:E35)</f>
+        <v>307.04</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="1">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="11">
+        <v>102.3</v>
+      </c>
+      <c r="D39" s="11">
+        <v>4.09</v>
+      </c>
+      <c r="E39" s="11">
+        <v>81.84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="1">
+        <v>2</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="11">
+        <v>714.0</v>
+      </c>
+      <c r="D40" s="11">
+        <v>28.56</v>
+      </c>
+      <c r="E40" s="11">
+        <v>571.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="B41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="11">
+        <f>SUM(C39:C40)</f>
+        <v>816.3</v>
+      </c>
+      <c r="D41" s="11">
+        <f>SUM(D39:D40)</f>
+        <v>32.65</v>
+      </c>
+      <c r="E41" s="11">
+        <f>SUM(E39:E40)</f>
+        <v>653.04</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="1">
+        <v>1</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="11">
+        <v>158.4</v>
+      </c>
+      <c r="D44" s="11">
+        <v>6.34</v>
+      </c>
+      <c r="E44" s="11">
+        <v>126.72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="1">
+        <v>2</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="11">
+        <v>238.0</v>
+      </c>
+      <c r="D45" s="11">
+        <v>9.52</v>
+      </c>
+      <c r="E45" s="11">
+        <v>190.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="1">
+        <v>3</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="11">
+        <v>202.3</v>
+      </c>
+      <c r="D46" s="11">
+        <v>8.09</v>
+      </c>
+      <c r="E46" s="11">
+        <v>161.84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="1">
+        <v>4</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="D47" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="E47" s="11">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="B48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="11">
+        <f>SUM(C44:C47)</f>
+        <v>598.7</v>
+      </c>
+      <c r="D48" s="11">
+        <f>SUM(D44:D47)</f>
+        <v>23.95</v>
+      </c>
+      <c r="E48" s="11">
+        <f>SUM(E44:E47)</f>
+        <v>478.96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="1">
+        <v>1</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="D51" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="E51" s="11">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="B52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="11">
+        <f>SUM(C51:C51)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="11">
+        <f>SUM(D51:D51)</f>
+        <v>0</v>
+      </c>
+      <c r="E52" s="11">
+        <f>SUM(E51:E51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="1">
+        <v>1</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="D55" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="E55" s="11">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="1">
+        <v>2</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="11">
+        <v>267.3</v>
+      </c>
+      <c r="D56" s="11">
+        <v>10.69</v>
+      </c>
+      <c r="E56" s="11">
+        <v>213.84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="1">
+        <v>3</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="11">
+        <v>190.4</v>
+      </c>
+      <c r="D57" s="11">
+        <v>7.62</v>
+      </c>
+      <c r="E57" s="11">
+        <v>152.32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="1">
+        <v>4</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="11">
+        <v>333.2</v>
+      </c>
+      <c r="D58" s="11">
+        <v>13.33</v>
+      </c>
+      <c r="E58" s="11">
+        <v>266.56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="1">
+        <v>5</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="11">
+        <v>158.4</v>
+      </c>
+      <c r="D59" s="11">
+        <v>6.34</v>
+      </c>
+      <c r="E59" s="11">
+        <v>126.72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="1">
+        <v>6</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" s="11">
+        <v>114.24</v>
+      </c>
+      <c r="D60" s="11">
+        <v>4.57</v>
+      </c>
+      <c r="E60" s="11">
+        <v>91.39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="1">
+        <v>7</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="11">
+        <v>195.5</v>
+      </c>
+      <c r="D61" s="11">
+        <v>7.82</v>
+      </c>
+      <c r="E61" s="11">
+        <v>156.4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="1">
+        <v>8</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="11">
+        <v>404.6</v>
+      </c>
+      <c r="D62" s="11">
+        <v>16.18</v>
+      </c>
+      <c r="E62" s="11">
+        <v>323.68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="1">
+        <v>9</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" s="11">
+        <v>476.0</v>
+      </c>
+      <c r="D63" s="11">
+        <v>19.04</v>
+      </c>
+      <c r="E63" s="11">
+        <v>380.8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="1">
+        <v>10</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="D64" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="E64" s="11">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="1">
+        <v>11</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="11">
+        <v>195.5</v>
+      </c>
+      <c r="D65" s="11">
+        <v>7.82</v>
+      </c>
+      <c r="E65" s="11">
+        <v>156.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="1">
+        <v>12</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="D66" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="E66" s="11">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="1">
+        <v>13</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="11">
+        <v>202.3</v>
+      </c>
+      <c r="D67" s="11">
+        <v>8.09</v>
+      </c>
+      <c r="E67" s="11">
+        <v>161.84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="1">
+        <v>14</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="11">
+        <v>230.0</v>
+      </c>
+      <c r="D68" s="11">
+        <v>9.2</v>
+      </c>
+      <c r="E68" s="11">
+        <v>184.0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="1">
+        <v>15</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="11">
+        <v>158.4</v>
+      </c>
+      <c r="D69" s="11">
+        <v>6.34</v>
+      </c>
+      <c r="E69" s="11">
+        <v>126.72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" s="1">
+        <v>16</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="11">
+        <v>40.0</v>
+      </c>
+      <c r="D70" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="E70" s="11">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" s="1">
+        <v>17</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="11">
+        <v>304.62</v>
+      </c>
+      <c r="D71" s="11">
+        <v>12.18</v>
+      </c>
+      <c r="E71" s="11">
+        <v>243.7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" s="1">
+        <v>18</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="11">
+        <v>747.04</v>
+      </c>
+      <c r="D72" s="11">
+        <v>29.88</v>
+      </c>
+      <c r="E72" s="11">
+        <v>597.63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" s="1">
+        <v>19</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="11">
+        <v>404.6</v>
+      </c>
+      <c r="D73" s="11">
+        <v>16.18</v>
+      </c>
+      <c r="E73" s="11">
+        <v>323.68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" s="1">
+        <v>20</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="11">
+        <v>158.4</v>
+      </c>
+      <c r="D74" s="11">
+        <v>6.34</v>
+      </c>
+      <c r="E74" s="11">
+        <v>126.72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="1">
+        <v>21</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="11">
+        <v>79.2</v>
+      </c>
+      <c r="D75" s="11">
+        <v>3.17</v>
+      </c>
+      <c r="E75" s="11">
+        <v>63.36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" s="1">
+        <v>22</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76" s="11">
+        <v>126.23</v>
+      </c>
+      <c r="D76" s="11">
+        <v>5.05</v>
+      </c>
+      <c r="E76" s="11">
+        <v>100.98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" s="1">
+        <v>23</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" s="11">
+        <v>79.2</v>
+      </c>
+      <c r="D77" s="11">
+        <v>3.17</v>
+      </c>
+      <c r="E77" s="11">
+        <v>63.36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" s="1">
+        <v>24</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="11">
+        <v>348.8</v>
+      </c>
+      <c r="D78" s="11">
+        <v>13.95</v>
+      </c>
+      <c r="E78" s="11">
+        <v>279.04</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79" s="1">
+        <v>25</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="11">
+        <v>142.8</v>
+      </c>
+      <c r="D79" s="11">
+        <v>5.71</v>
+      </c>
+      <c r="E79" s="11">
+        <v>114.24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" s="1">
+        <v>26</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="11">
+        <v>158.4</v>
+      </c>
+      <c r="D80" s="11">
+        <v>6.34</v>
+      </c>
+      <c r="E80" s="11">
+        <v>126.72</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81" s="1">
+        <v>27</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="11">
+        <v>451.2</v>
+      </c>
+      <c r="D81" s="11">
+        <v>18.05</v>
+      </c>
+      <c r="E81" s="11">
+        <v>360.96</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82" s="1">
+        <v>28</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" s="11">
+        <v>436.0</v>
+      </c>
+      <c r="D82" s="11">
+        <v>17.44</v>
+      </c>
+      <c r="E82" s="11">
+        <v>348.8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83" s="1">
+        <v>29</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="D83" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="E83" s="11">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84" s="1">
+        <v>30</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" s="11">
+        <v>202.3</v>
+      </c>
+      <c r="D84" s="11">
+        <v>8.09</v>
+      </c>
+      <c r="E84" s="11">
+        <v>161.84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85" s="1">
+        <v>31</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" s="11">
+        <v>380.8</v>
+      </c>
+      <c r="D85" s="11">
+        <v>15.23</v>
+      </c>
+      <c r="E85" s="11">
+        <v>304.64</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86" s="1">
+        <v>32</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" s="11">
+        <v>79.2</v>
+      </c>
+      <c r="D86" s="11">
+        <v>3.17</v>
+      </c>
+      <c r="E86" s="11">
+        <v>63.36</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87" s="1">
+        <v>33</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" s="11">
+        <v>142.8</v>
+      </c>
+      <c r="D87" s="11">
+        <v>5.71</v>
+      </c>
+      <c r="E87" s="11">
+        <v>114.24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" s="1">
+        <v>34</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" s="11">
+        <v>40.0</v>
+      </c>
+      <c r="D88" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="E88" s="11">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89" s="1">
+        <v>35</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="D89" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="E89" s="11">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90" s="1">
+        <v>36</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="D90" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="E90" s="11">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91" s="1">
+        <v>37</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="11">
+        <v>102.34</v>
+      </c>
+      <c r="D91" s="11">
+        <v>4.09</v>
+      </c>
+      <c r="E91" s="11">
+        <v>81.88</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92" s="1">
+        <v>38</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="11">
+        <v>190.4</v>
+      </c>
+      <c r="D92" s="11">
+        <v>7.62</v>
+      </c>
+      <c r="E92" s="11">
+        <v>152.32</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93" s="1">
+        <v>39</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" s="11">
+        <v>79.2</v>
+      </c>
+      <c r="D93" s="11">
+        <v>3.17</v>
+      </c>
+      <c r="E93" s="11">
+        <v>63.36</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94" s="1">
+        <v>40</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" s="11">
+        <v>102.3</v>
+      </c>
+      <c r="D94" s="11">
+        <v>4.09</v>
+      </c>
+      <c r="E94" s="11">
+        <v>81.84</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95" s="1">
+        <v>41</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="11">
+        <v>40.49</v>
+      </c>
+      <c r="D95" s="11">
+        <v>1.62</v>
+      </c>
+      <c r="E95" s="11">
+        <v>32.39</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96" s="1">
+        <v>42</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" s="11">
+        <v>523.65</v>
+      </c>
+      <c r="D96" s="11">
+        <v>20.95</v>
+      </c>
+      <c r="E96" s="11">
+        <v>418.92</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="A97" s="1">
+        <v>43</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" s="11">
+        <v>195.5</v>
+      </c>
+      <c r="D97" s="11">
+        <v>7.82</v>
+      </c>
+      <c r="E97" s="11">
+        <v>156.4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98" s="1">
+        <v>44</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="11">
+        <v>198.0</v>
+      </c>
+      <c r="D98" s="11">
+        <v>7.92</v>
+      </c>
+      <c r="E98" s="11">
+        <v>158.4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99" s="1">
+        <v>45</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="11">
+        <v>79.2</v>
+      </c>
+      <c r="D99" s="11">
+        <v>3.17</v>
+      </c>
+      <c r="E99" s="11">
+        <v>63.36</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100" s="1">
+        <v>46</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="11">
+        <v>202.3</v>
+      </c>
+      <c r="D100" s="11">
+        <v>8.09</v>
+      </c>
+      <c r="E100" s="11">
+        <v>161.84</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101" s="1">
+        <v>47</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="11">
+        <v>27.6</v>
+      </c>
+      <c r="D101" s="11">
+        <v>1.1</v>
+      </c>
+      <c r="E101" s="11">
+        <v>22.08</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102" s="1">
+        <v>48</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="11">
+        <v>169.61</v>
+      </c>
+      <c r="D102" s="11">
+        <v>6.78</v>
+      </c>
+      <c r="E102" s="11">
+        <v>135.69</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="A103" s="1">
+        <v>49</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" s="11">
+        <v>78.03</v>
+      </c>
+      <c r="D103" s="11">
+        <v>3.12</v>
+      </c>
+      <c r="E103" s="11">
+        <v>62.43</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104" s="1">
+        <v>50</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" s="11">
+        <v>102.3</v>
+      </c>
+      <c r="D104" s="11">
+        <v>4.09</v>
+      </c>
+      <c r="E104" s="11">
+        <v>81.84</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="A105" s="1">
+        <v>51</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="11">
+        <v>476.0</v>
+      </c>
+      <c r="D105" s="11">
+        <v>19.04</v>
+      </c>
+      <c r="E105" s="11">
+        <v>380.8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
+      <c r="A106" s="1">
+        <v>52</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" s="11">
+        <v>202.3</v>
+      </c>
+      <c r="D106" s="11">
+        <v>8.09</v>
+      </c>
+      <c r="E106" s="11">
+        <v>161.84</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="A107" s="1">
+        <v>53</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="11">
+        <v>142.8</v>
+      </c>
+      <c r="D107" s="11">
+        <v>5.71</v>
+      </c>
+      <c r="E107" s="11">
+        <v>114.24</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="A108" s="1">
+        <v>54</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" s="11">
+        <v>202.3</v>
+      </c>
+      <c r="D108" s="11">
+        <v>8.09</v>
+      </c>
+      <c r="E108" s="11">
+        <v>161.84</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="A109" s="1">
+        <v>55</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="11">
+        <v>90.43</v>
+      </c>
+      <c r="D109" s="11">
+        <v>3.62</v>
+      </c>
+      <c r="E109" s="11">
+        <v>72.34</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="A110" s="1">
+        <v>56</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C110" s="11">
+        <v>158.4</v>
+      </c>
+      <c r="D110" s="11">
+        <v>6.34</v>
+      </c>
+      <c r="E110" s="11">
+        <v>126.72</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
+      <c r="A111" s="1">
+        <v>57</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="11">
+        <v>79.2</v>
+      </c>
+      <c r="D111" s="11">
+        <v>3.17</v>
+      </c>
+      <c r="E111" s="11">
+        <v>63.36</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
+      <c r="A112" s="1">
+        <v>58</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" s="11">
+        <v>525.98</v>
+      </c>
+      <c r="D112" s="11">
+        <v>21.04</v>
+      </c>
+      <c r="E112" s="11">
+        <v>420.78</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="A113" s="1">
+        <v>59</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" s="11">
+        <v>202.3</v>
+      </c>
+      <c r="D113" s="11">
+        <v>8.09</v>
+      </c>
+      <c r="E113" s="11">
+        <v>161.84</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
+      <c r="A114" s="1">
+        <v>60</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C114" s="11">
+        <v>202.3</v>
+      </c>
+      <c r="D114" s="11">
+        <v>8.09</v>
+      </c>
+      <c r="E114" s="11">
+        <v>161.84</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
+      <c r="A115" s="1">
+        <v>61</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" s="11">
+        <v>606.9</v>
+      </c>
+      <c r="D115" s="11">
+        <v>24.28</v>
+      </c>
+      <c r="E115" s="11">
+        <v>485.52</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="A116" s="1">
+        <v>62</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" s="11">
+        <v>102.3</v>
+      </c>
+      <c r="D116" s="11">
+        <v>4.09</v>
+      </c>
+      <c r="E116" s="11">
+        <v>81.84</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
+      <c r="A117" s="1">
+        <v>63</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" s="11">
+        <v>20.7</v>
+      </c>
+      <c r="D117" s="11">
+        <v>0.83</v>
+      </c>
+      <c r="E117" s="11">
+        <v>16.56</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="A118" s="1">
+        <v>64</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" s="11">
+        <v>404.6</v>
+      </c>
+      <c r="D118" s="11">
+        <v>16.18</v>
+      </c>
+      <c r="E118" s="11">
+        <v>323.68</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
+      <c r="A119" s="1">
+        <v>65</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" s="11">
+        <v>202.3</v>
+      </c>
+      <c r="D119" s="11">
+        <v>8.09</v>
+      </c>
+      <c r="E119" s="11">
+        <v>161.84</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="A120" s="1">
+        <v>66</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" s="11">
+        <v>370.6</v>
+      </c>
+      <c r="D120" s="11">
+        <v>14.82</v>
+      </c>
+      <c r="E120" s="11">
+        <v>296.48</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
+      <c r="A121" s="1">
+        <v>67</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C121" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="D121" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="E121" s="11">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="A122" s="1">
+        <v>68</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" s="11">
+        <v>525.98</v>
+      </c>
+      <c r="D122" s="11">
+        <v>21.04</v>
+      </c>
+      <c r="E122" s="11">
+        <v>420.78</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="A123" s="1">
+        <v>69</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" s="11">
+        <v>17.94</v>
+      </c>
+      <c r="D123" s="11">
+        <v>0.72</v>
+      </c>
+      <c r="E123" s="11">
+        <v>14.35</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="A124" s="1">
+        <v>70</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" s="11">
+        <v>158.4</v>
+      </c>
+      <c r="D124" s="11">
+        <v>6.34</v>
+      </c>
+      <c r="E124" s="11">
+        <v>126.72</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
+      <c r="A125" s="1">
+        <v>71</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" s="11">
+        <v>79.2</v>
+      </c>
+      <c r="D125" s="11">
+        <v>3.17</v>
+      </c>
+      <c r="E125" s="11">
+        <v>63.36</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
+      <c r="A126" s="1">
+        <v>72</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C126" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="D126" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="E126" s="11">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127" s="1">
+        <v>73</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C127" s="11">
+        <v>559.2</v>
+      </c>
+      <c r="D127" s="11">
+        <v>22.37</v>
+      </c>
+      <c r="E127" s="11">
+        <v>447.36</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="A128" s="1">
+        <v>74</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" s="11">
+        <v>336.6</v>
+      </c>
+      <c r="D128" s="11">
+        <v>13.46</v>
+      </c>
+      <c r="E128" s="11">
+        <v>269.28</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
+      <c r="A129" s="1">
+        <v>75</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" s="11">
+        <v>79.2</v>
+      </c>
+      <c r="D129" s="11">
+        <v>3.17</v>
+      </c>
+      <c r="E129" s="11">
+        <v>63.36</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
+      <c r="A130" s="1">
+        <v>76</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" s="11">
+        <v>202.3</v>
+      </c>
+      <c r="D130" s="11">
+        <v>8.09</v>
+      </c>
+      <c r="E130" s="11">
+        <v>161.84</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
+      <c r="A131" s="1">
+        <v>77</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C131" s="11">
+        <v>380.8</v>
+      </c>
+      <c r="D131" s="11">
+        <v>15.23</v>
+      </c>
+      <c r="E131" s="11">
+        <v>304.64</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
+      <c r="A132" s="1">
+        <v>78</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" s="11">
+        <v>420.75</v>
+      </c>
+      <c r="D132" s="11">
+        <v>16.83</v>
+      </c>
+      <c r="E132" s="11">
+        <v>336.6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
+      <c r="A133" s="1">
+        <v>79</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C133" s="11">
+        <v>158.4</v>
+      </c>
+      <c r="D133" s="11">
+        <v>6.34</v>
+      </c>
+      <c r="E133" s="11">
+        <v>126.72</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
+      <c r="A134" s="1">
+        <v>80</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C134" s="11">
+        <v>202.3</v>
+      </c>
+      <c r="D134" s="11">
+        <v>8.09</v>
+      </c>
+      <c r="E134" s="11">
+        <v>161.84</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
+      <c r="A135" s="1">
+        <v>81</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C135" s="11">
+        <v>79.2</v>
+      </c>
+      <c r="D135" s="11">
+        <v>3.17</v>
+      </c>
+      <c r="E135" s="11">
+        <v>63.36</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
+      <c r="A136" s="1">
+        <v>82</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136" s="11">
+        <v>693.0</v>
+      </c>
+      <c r="D136" s="11">
+        <v>27.72</v>
+      </c>
+      <c r="E136" s="11">
+        <v>554.4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
+      <c r="A137" s="1">
+        <v>83</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C137" s="11">
+        <v>202.3</v>
+      </c>
+      <c r="D137" s="11">
+        <v>8.09</v>
+      </c>
+      <c r="E137" s="11">
+        <v>161.84</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
+      <c r="A138" s="1">
+        <v>84</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C138" s="11">
+        <v>202.3</v>
+      </c>
+      <c r="D138" s="11">
+        <v>8.09</v>
+      </c>
+      <c r="E138" s="11">
+        <v>161.84</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
+      <c r="A139" s="1">
+        <v>85</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C139" s="11">
         <v>95.2</v>
       </c>
-      <c r="D6" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="11">
+      <c r="D139" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="E139" s="11">
         <v>79.97</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="11">
-        <f>SUM(C6:C6)</f>
-        <v>95.2</v>
-      </c>
-      <c r="D7" s="11">
-        <f>SUM(D6:D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="11">
-        <f>SUM(E6:E6)</f>
-        <v>79.97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="11">
-        <f>C7</f>
-        <v>95.2</v>
-      </c>
-      <c r="D11" s="11">
-        <f>D7</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="11">
-        <f>E7</f>
-        <v>79.97</v>
+    <row r="140" spans="1:15">
+      <c r="B140" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C140" s="11">
+        <f>SUM(C55:C139)</f>
+        <v>17720.83</v>
+      </c>
+      <c r="D140" s="11">
+        <f>SUM(D55:D139)</f>
+        <v>705.02</v>
+      </c>
+      <c r="E140" s="11">
+        <f>SUM(E55:E139)</f>
+        <v>14180.47</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
+      <c r="B144" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C144" s="11">
+        <f>C16+C25+C30+C36+C41+C48+C52+C140</f>
+        <v>23209.5</v>
+      </c>
+      <c r="D144" s="11">
+        <f>D16+D25+D30+D36+D41+D48+D52+D140</f>
+        <v>924.57</v>
+      </c>
+      <c r="E144" s="11">
+        <f>E16+E25+E30+E36+E41+E48+E52+E140</f>
+        <v>18571.4</v>
       </c>
     </row>
   </sheetData>

--- a/public/Reportes/comisiones/comisiones.xlsx
+++ b/public/Reportes/comisiones/comisiones.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
-    <sheet name="V&amp;O" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -16,48 +15,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
-  <si>
-    <t>DELFINITI DE MÉXICO S.A DE C.V</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+  <si>
+    <t>Delfiniti de México S.A. de C.V.</t>
   </si>
   <si>
     <t>REPORTE DE COMISIONES</t>
   </si>
   <si>
-    <t>Del 05-10-2022 al 06-10-2022</t>
+    <t>Del 01-08-2022 al 22-08-2022</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>COMISIONISTAS</t>
+  </si>
+  <si>
+    <t>COM. BRUTA</t>
+  </si>
+  <si>
+    <t>4%</t>
+  </si>
+  <si>
+    <t>A PAGAR</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES</t>
+  </si>
+  <si>
+    <t>YESENIA LEON</t>
+  </si>
+  <si>
+    <t>JOVANI MACIEL</t>
+  </si>
+  <si>
+    <t>DIANA EVELYN VARGAS</t>
+  </si>
+  <si>
+    <t>SUNNY SIDE FONTAN</t>
+  </si>
+  <si>
+    <t>MOISES BAÑOS TORRES</t>
+  </si>
+  <si>
+    <t>JESUS TRAVENTURES</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>PROMOTORES CALLE</t>
+  </si>
+  <si>
+    <t>AGENCIA PARK ROYAL</t>
+  </si>
+  <si>
+    <t>LOCACION</t>
+  </si>
+  <si>
+    <t>VICTOR HUGO CALDERON</t>
+  </si>
+  <si>
+    <t>DIRECTO</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO TELLO</t>
+  </si>
+  <si>
+    <t>GRUPOS</t>
+  </si>
+  <si>
+    <t>AGENCIAS SIN CREDITO</t>
+  </si>
+  <si>
+    <t>CERRADORES</t>
+  </si>
+  <si>
+    <t>SALVADOR HERNANDEZ ROMERO.</t>
+  </si>
+  <si>
+    <t>AGENCIA PGC ACAPULCO</t>
+  </si>
+  <si>
+    <t>OMAR CORIA GRUPOS</t>
+  </si>
+  <si>
+    <t>QUALTON CLUB</t>
   </si>
   <si>
     <t>TOTALES</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>REPORTE V&amp;O</t>
-  </si>
-  <si>
-    <t>INGRESOS POR CANALES DE VENTAS DEL 05-10-2022 AL 06-10-2022</t>
-  </si>
-  <si>
-    <t>CANAL DE VENTA</t>
-  </si>
-  <si>
-    <t>INGRESO S/IVA</t>
-  </si>
-  <si>
-    <t>% VICTOR CALDERON</t>
-  </si>
-  <si>
-    <t>TOTAL VICTOR CALDERON</t>
-  </si>
-  <si>
-    <t>% OMAR CORIA</t>
-  </si>
-  <si>
-    <t>TOTAL OMAR CORIA</t>
-  </si>
-  <si>
-    <t>COMISIONISTAS</t>
   </si>
 </sst>
 </file>
@@ -67,7 +114,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_-"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="5">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -109,52 +156,7 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="26"/>
-      <color rgb="FF17365D"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12"/>
-      <color rgb="FF17365D"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="20"/>
-      <color rgb="FF17365D"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FF17365D"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -168,23 +170,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FF17365D"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border/>
-    <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="12">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -206,38 +203,20 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="7" numFmtId="164" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="164" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,21 +517,21 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O144"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A7" sqref="A7:F7"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="C144" sqref="C144:E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="8.83203125" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" bestFit="true" style="1"/>
-    <col min="2" max="2" width="9" bestFit="true" customWidth="true" style="1"/>
-    <col min="3" max="3" width="2" bestFit="true" customWidth="true" style="1"/>
-    <col min="4" max="4" width="2" bestFit="true" customWidth="true" style="1"/>
-    <col min="5" max="5" width="2" bestFit="true" customWidth="true" style="1"/>
-    <col min="6" max="6" width="2" bestFit="true" customWidth="true" style="1"/>
-    <col min="7" max="7" width="20" customWidth="true" style="1"/>
+    <col min="1" max="1" width="14.5" customWidth="true" style="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="true" style="1"/>
+    <col min="3" max="3" width="12.5" customWidth="true" style="1"/>
+    <col min="4" max="4" width="9.1640625" customWidth="true" style="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="true" style="1"/>
+    <col min="6" max="6" width="17.83203125" customWidth="true" style="1"/>
+    <col min="7" max="7" width="12.83203125" customWidth="true" style="1"/>
     <col min="8" max="8" width="12.1640625" customWidth="true" style="1"/>
   </cols>
   <sheetData>
@@ -623,22 +602,2236 @@
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
     </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11">
+        <v>238.0</v>
+      </c>
+      <c r="D6" s="11">
+        <v>9.52</v>
+      </c>
+      <c r="E6" s="11">
+        <v>190.4</v>
+      </c>
+    </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="11">
+        <v>158.4</v>
+      </c>
+      <c r="D7" s="11">
+        <v>6.34</v>
+      </c>
+      <c r="E7" s="11">
+        <v>126.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="11">
+        <v>79.2</v>
+      </c>
+      <c r="D8" s="11">
+        <v>3.17</v>
+      </c>
+      <c r="E8" s="11">
+        <v>63.36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="11">
+        <v>202.3</v>
+      </c>
+      <c r="D9" s="11">
+        <v>8.09</v>
+      </c>
+      <c r="E9" s="11">
+        <v>161.84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11">
+        <v>166.6</v>
+      </c>
+      <c r="D10" s="11">
+        <v>6.66</v>
+      </c>
+      <c r="E10" s="11">
+        <v>133.28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="11">
+        <v>205.92</v>
+      </c>
+      <c r="D11" s="11">
+        <v>8.24</v>
+      </c>
+      <c r="E11" s="11">
+        <v>164.73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="11">
+        <v>102.35</v>
+      </c>
+      <c r="D12" s="11">
+        <v>4.09</v>
+      </c>
+      <c r="E12" s="11">
+        <v>81.88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="11">
+        <v>158.4</v>
+      </c>
+      <c r="D13" s="11">
+        <v>6.34</v>
+      </c>
+      <c r="E13" s="11">
+        <v>126.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="11">
+        <v>202.3</v>
+      </c>
+      <c r="D14" s="11">
+        <v>8.09</v>
+      </c>
+      <c r="E14" s="11">
+        <v>161.84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="11">
+        <v>277.2</v>
+      </c>
+      <c r="D15" s="11">
+        <v>11.09</v>
+      </c>
+      <c r="E15" s="11">
+        <v>221.76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="11">
+        <f>SUM(C6:C15)</f>
+        <v>1790.67</v>
+      </c>
+      <c r="D16" s="11">
+        <f>SUM(D6:D15)</f>
+        <v>71.63</v>
+      </c>
+      <c r="E16" s="11">
+        <f>SUM(E6:E15)</f>
+        <v>1432.53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="11">
+        <v>178.2</v>
+      </c>
+      <c r="D19" s="11">
+        <v>7.13</v>
+      </c>
+      <c r="E19" s="11">
+        <v>142.56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="11">
+        <v>238.0</v>
+      </c>
+      <c r="D20" s="11">
+        <v>9.52</v>
+      </c>
+      <c r="E20" s="11">
+        <v>190.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="1">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="11">
+        <v>761.6</v>
+      </c>
+      <c r="D21" s="11">
+        <v>30.46</v>
+      </c>
+      <c r="E21" s="11">
+        <v>609.28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="1">
         <v>4</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="B22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="D22" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="E22" s="11">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="1">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="11">
+        <v>404.6</v>
+      </c>
+      <c r="D23" s="11">
+        <v>16.18</v>
+      </c>
+      <c r="E23" s="11">
+        <v>323.68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="1">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="11">
+        <v>158.4</v>
+      </c>
+      <c r="D24" s="11">
+        <v>6.34</v>
+      </c>
+      <c r="E24" s="11">
+        <v>126.72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="B25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="11">
+        <f>SUM(C19:C24)</f>
+        <v>1740.8</v>
+      </c>
+      <c r="D25" s="11">
+        <f>SUM(D19:D24)</f>
+        <v>69.63</v>
+      </c>
+      <c r="E25" s="11">
+        <f>SUM(E19:E24)</f>
+        <v>1392.64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="11">
+        <v>158.4</v>
+      </c>
+      <c r="D28" s="11">
+        <v>6.34</v>
+      </c>
+      <c r="E28" s="11">
+        <v>126.72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="1">
+        <v>2</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="D29" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="E29" s="11">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="B30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="11">
+        <f>SUM(C28:C29)</f>
+        <v>158.4</v>
+      </c>
+      <c r="D30" s="11">
+        <f>SUM(D28:D29)</f>
+        <v>6.34</v>
+      </c>
+      <c r="E30" s="11">
+        <f>SUM(E28:E29)</f>
+        <v>126.72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="11">
+        <v>202.3</v>
+      </c>
+      <c r="D33" s="11">
+        <v>8.09</v>
+      </c>
+      <c r="E33" s="11">
+        <v>161.84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="1">
+        <v>2</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="11">
+        <v>79.2</v>
+      </c>
+      <c r="D34" s="11">
+        <v>3.17</v>
+      </c>
+      <c r="E34" s="11">
+        <v>63.36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="1">
+        <v>3</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="11">
+        <v>102.3</v>
+      </c>
+      <c r="D35" s="11">
+        <v>4.09</v>
+      </c>
+      <c r="E35" s="11">
+        <v>81.84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="B36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="11">
+        <f>SUM(C33:C35)</f>
+        <v>383.8</v>
+      </c>
+      <c r="D36" s="11">
+        <f>SUM(D33:D35)</f>
+        <v>15.35</v>
+      </c>
+      <c r="E36" s="11">
+        <f>SUM(E33:E35)</f>
+        <v>307.04</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="1">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="11">
+        <v>102.3</v>
+      </c>
+      <c r="D39" s="11">
+        <v>4.09</v>
+      </c>
+      <c r="E39" s="11">
+        <v>81.84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="1">
+        <v>2</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="11">
+        <v>714.0</v>
+      </c>
+      <c r="D40" s="11">
+        <v>28.56</v>
+      </c>
+      <c r="E40" s="11">
+        <v>571.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="B41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="11">
+        <f>SUM(C39:C40)</f>
+        <v>816.3</v>
+      </c>
+      <c r="D41" s="11">
+        <f>SUM(D39:D40)</f>
+        <v>32.65</v>
+      </c>
+      <c r="E41" s="11">
+        <f>SUM(E39:E40)</f>
+        <v>653.04</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="1">
+        <v>1</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="11">
+        <v>158.4</v>
+      </c>
+      <c r="D44" s="11">
+        <v>6.34</v>
+      </c>
+      <c r="E44" s="11">
+        <v>126.72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="1">
+        <v>2</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="11">
+        <v>238.0</v>
+      </c>
+      <c r="D45" s="11">
+        <v>9.52</v>
+      </c>
+      <c r="E45" s="11">
+        <v>190.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="1">
+        <v>3</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="11">
+        <v>202.3</v>
+      </c>
+      <c r="D46" s="11">
+        <v>8.09</v>
+      </c>
+      <c r="E46" s="11">
+        <v>161.84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="1">
         <v>4</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="B47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="D47" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="E47" s="11">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="B48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="11">
+        <f>SUM(C44:C47)</f>
+        <v>598.7</v>
+      </c>
+      <c r="D48" s="11">
+        <f>SUM(D44:D47)</f>
+        <v>23.95</v>
+      </c>
+      <c r="E48" s="11">
+        <f>SUM(E44:E47)</f>
+        <v>478.96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="1">
+        <v>1</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="D51" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="E51" s="11">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="B52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="11">
+        <f>SUM(C51:C51)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="11">
+        <f>SUM(D51:D51)</f>
+        <v>0</v>
+      </c>
+      <c r="E52" s="11">
+        <f>SUM(E51:E51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="1">
+        <v>1</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="D55" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="E55" s="11">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="1">
+        <v>2</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="11">
+        <v>267.3</v>
+      </c>
+      <c r="D56" s="11">
+        <v>10.69</v>
+      </c>
+      <c r="E56" s="11">
+        <v>213.84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="1">
+        <v>3</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="11">
+        <v>190.4</v>
+      </c>
+      <c r="D57" s="11">
+        <v>7.62</v>
+      </c>
+      <c r="E57" s="11">
+        <v>152.32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="1">
         <v>4</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="11">
+        <v>333.2</v>
+      </c>
+      <c r="D58" s="11">
+        <v>13.33</v>
+      </c>
+      <c r="E58" s="11">
+        <v>266.56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="1">
+        <v>5</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="11">
+        <v>158.4</v>
+      </c>
+      <c r="D59" s="11">
+        <v>6.34</v>
+      </c>
+      <c r="E59" s="11">
+        <v>126.72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="1">
+        <v>6</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" s="11">
+        <v>114.24</v>
+      </c>
+      <c r="D60" s="11">
+        <v>4.57</v>
+      </c>
+      <c r="E60" s="11">
+        <v>91.39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="1">
+        <v>7</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="11">
+        <v>195.5</v>
+      </c>
+      <c r="D61" s="11">
+        <v>7.82</v>
+      </c>
+      <c r="E61" s="11">
+        <v>156.4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="1">
+        <v>8</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="11">
+        <v>404.6</v>
+      </c>
+      <c r="D62" s="11">
+        <v>16.18</v>
+      </c>
+      <c r="E62" s="11">
+        <v>323.68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="1">
+        <v>9</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" s="11">
+        <v>476.0</v>
+      </c>
+      <c r="D63" s="11">
+        <v>19.04</v>
+      </c>
+      <c r="E63" s="11">
+        <v>380.8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="1">
+        <v>10</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="D64" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="E64" s="11">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="1">
+        <v>11</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="11">
+        <v>195.5</v>
+      </c>
+      <c r="D65" s="11">
+        <v>7.82</v>
+      </c>
+      <c r="E65" s="11">
+        <v>156.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="1">
+        <v>12</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="D66" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="E66" s="11">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="1">
+        <v>13</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="11">
+        <v>202.3</v>
+      </c>
+      <c r="D67" s="11">
+        <v>8.09</v>
+      </c>
+      <c r="E67" s="11">
+        <v>161.84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="1">
+        <v>14</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="11">
+        <v>230.0</v>
+      </c>
+      <c r="D68" s="11">
+        <v>9.2</v>
+      </c>
+      <c r="E68" s="11">
+        <v>184.0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="1">
+        <v>15</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="11">
+        <v>158.4</v>
+      </c>
+      <c r="D69" s="11">
+        <v>6.34</v>
+      </c>
+      <c r="E69" s="11">
+        <v>126.72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" s="1">
+        <v>16</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="11">
+        <v>40.0</v>
+      </c>
+      <c r="D70" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="E70" s="11">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" s="1">
+        <v>17</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="11">
+        <v>304.62</v>
+      </c>
+      <c r="D71" s="11">
+        <v>12.18</v>
+      </c>
+      <c r="E71" s="11">
+        <v>243.7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" s="1">
+        <v>18</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="11">
+        <v>747.04</v>
+      </c>
+      <c r="D72" s="11">
+        <v>29.88</v>
+      </c>
+      <c r="E72" s="11">
+        <v>597.63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" s="1">
+        <v>19</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="11">
+        <v>404.6</v>
+      </c>
+      <c r="D73" s="11">
+        <v>16.18</v>
+      </c>
+      <c r="E73" s="11">
+        <v>323.68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" s="1">
+        <v>20</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="11">
+        <v>158.4</v>
+      </c>
+      <c r="D74" s="11">
+        <v>6.34</v>
+      </c>
+      <c r="E74" s="11">
+        <v>126.72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="1">
+        <v>21</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="11">
+        <v>79.2</v>
+      </c>
+      <c r="D75" s="11">
+        <v>3.17</v>
+      </c>
+      <c r="E75" s="11">
+        <v>63.36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" s="1">
+        <v>22</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76" s="11">
+        <v>126.23</v>
+      </c>
+      <c r="D76" s="11">
+        <v>5.05</v>
+      </c>
+      <c r="E76" s="11">
+        <v>100.98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" s="1">
+        <v>23</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" s="11">
+        <v>79.2</v>
+      </c>
+      <c r="D77" s="11">
+        <v>3.17</v>
+      </c>
+      <c r="E77" s="11">
+        <v>63.36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" s="1">
+        <v>24</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="11">
+        <v>348.8</v>
+      </c>
+      <c r="D78" s="11">
+        <v>13.95</v>
+      </c>
+      <c r="E78" s="11">
+        <v>279.04</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79" s="1">
+        <v>25</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="11">
+        <v>142.8</v>
+      </c>
+      <c r="D79" s="11">
+        <v>5.71</v>
+      </c>
+      <c r="E79" s="11">
+        <v>114.24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" s="1">
+        <v>26</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="11">
+        <v>158.4</v>
+      </c>
+      <c r="D80" s="11">
+        <v>6.34</v>
+      </c>
+      <c r="E80" s="11">
+        <v>126.72</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81" s="1">
+        <v>27</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="11">
+        <v>451.2</v>
+      </c>
+      <c r="D81" s="11">
+        <v>18.05</v>
+      </c>
+      <c r="E81" s="11">
+        <v>360.96</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82" s="1">
+        <v>28</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" s="11">
+        <v>436.0</v>
+      </c>
+      <c r="D82" s="11">
+        <v>17.44</v>
+      </c>
+      <c r="E82" s="11">
+        <v>348.8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83" s="1">
+        <v>29</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="D83" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="E83" s="11">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84" s="1">
+        <v>30</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" s="11">
+        <v>202.3</v>
+      </c>
+      <c r="D84" s="11">
+        <v>8.09</v>
+      </c>
+      <c r="E84" s="11">
+        <v>161.84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85" s="1">
+        <v>31</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" s="11">
+        <v>380.8</v>
+      </c>
+      <c r="D85" s="11">
+        <v>15.23</v>
+      </c>
+      <c r="E85" s="11">
+        <v>304.64</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86" s="1">
+        <v>32</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" s="11">
+        <v>79.2</v>
+      </c>
+      <c r="D86" s="11">
+        <v>3.17</v>
+      </c>
+      <c r="E86" s="11">
+        <v>63.36</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87" s="1">
+        <v>33</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" s="11">
+        <v>142.8</v>
+      </c>
+      <c r="D87" s="11">
+        <v>5.71</v>
+      </c>
+      <c r="E87" s="11">
+        <v>114.24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" s="1">
+        <v>34</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" s="11">
+        <v>40.0</v>
+      </c>
+      <c r="D88" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="E88" s="11">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89" s="1">
+        <v>35</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="D89" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="E89" s="11">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90" s="1">
+        <v>36</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="D90" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="E90" s="11">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91" s="1">
+        <v>37</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="11">
+        <v>102.34</v>
+      </c>
+      <c r="D91" s="11">
+        <v>4.09</v>
+      </c>
+      <c r="E91" s="11">
+        <v>81.88</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92" s="1">
+        <v>38</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="11">
+        <v>190.4</v>
+      </c>
+      <c r="D92" s="11">
+        <v>7.62</v>
+      </c>
+      <c r="E92" s="11">
+        <v>152.32</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93" s="1">
+        <v>39</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" s="11">
+        <v>79.2</v>
+      </c>
+      <c r="D93" s="11">
+        <v>3.17</v>
+      </c>
+      <c r="E93" s="11">
+        <v>63.36</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94" s="1">
+        <v>40</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" s="11">
+        <v>102.3</v>
+      </c>
+      <c r="D94" s="11">
+        <v>4.09</v>
+      </c>
+      <c r="E94" s="11">
+        <v>81.84</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95" s="1">
+        <v>41</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="11">
+        <v>40.49</v>
+      </c>
+      <c r="D95" s="11">
+        <v>1.62</v>
+      </c>
+      <c r="E95" s="11">
+        <v>32.39</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96" s="1">
+        <v>42</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" s="11">
+        <v>523.65</v>
+      </c>
+      <c r="D96" s="11">
+        <v>20.95</v>
+      </c>
+      <c r="E96" s="11">
+        <v>418.92</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="A97" s="1">
+        <v>43</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" s="11">
+        <v>195.5</v>
+      </c>
+      <c r="D97" s="11">
+        <v>7.82</v>
+      </c>
+      <c r="E97" s="11">
+        <v>156.4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98" s="1">
+        <v>44</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="11">
+        <v>198.0</v>
+      </c>
+      <c r="D98" s="11">
+        <v>7.92</v>
+      </c>
+      <c r="E98" s="11">
+        <v>158.4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99" s="1">
+        <v>45</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="11">
+        <v>79.2</v>
+      </c>
+      <c r="D99" s="11">
+        <v>3.17</v>
+      </c>
+      <c r="E99" s="11">
+        <v>63.36</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100" s="1">
+        <v>46</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="11">
+        <v>202.3</v>
+      </c>
+      <c r="D100" s="11">
+        <v>8.09</v>
+      </c>
+      <c r="E100" s="11">
+        <v>161.84</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101" s="1">
+        <v>47</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="11">
+        <v>27.6</v>
+      </c>
+      <c r="D101" s="11">
+        <v>1.1</v>
+      </c>
+      <c r="E101" s="11">
+        <v>22.08</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102" s="1">
+        <v>48</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="11">
+        <v>169.61</v>
+      </c>
+      <c r="D102" s="11">
+        <v>6.78</v>
+      </c>
+      <c r="E102" s="11">
+        <v>135.69</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="A103" s="1">
+        <v>49</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" s="11">
+        <v>78.03</v>
+      </c>
+      <c r="D103" s="11">
+        <v>3.12</v>
+      </c>
+      <c r="E103" s="11">
+        <v>62.43</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104" s="1">
+        <v>50</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" s="11">
+        <v>102.3</v>
+      </c>
+      <c r="D104" s="11">
+        <v>4.09</v>
+      </c>
+      <c r="E104" s="11">
+        <v>81.84</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="A105" s="1">
+        <v>51</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="11">
+        <v>476.0</v>
+      </c>
+      <c r="D105" s="11">
+        <v>19.04</v>
+      </c>
+      <c r="E105" s="11">
+        <v>380.8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
+      <c r="A106" s="1">
+        <v>52</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" s="11">
+        <v>202.3</v>
+      </c>
+      <c r="D106" s="11">
+        <v>8.09</v>
+      </c>
+      <c r="E106" s="11">
+        <v>161.84</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="A107" s="1">
+        <v>53</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="11">
+        <v>142.8</v>
+      </c>
+      <c r="D107" s="11">
+        <v>5.71</v>
+      </c>
+      <c r="E107" s="11">
+        <v>114.24</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="A108" s="1">
+        <v>54</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" s="11">
+        <v>202.3</v>
+      </c>
+      <c r="D108" s="11">
+        <v>8.09</v>
+      </c>
+      <c r="E108" s="11">
+        <v>161.84</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="A109" s="1">
+        <v>55</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="11">
+        <v>90.43</v>
+      </c>
+      <c r="D109" s="11">
+        <v>3.62</v>
+      </c>
+      <c r="E109" s="11">
+        <v>72.34</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="A110" s="1">
+        <v>56</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C110" s="11">
+        <v>158.4</v>
+      </c>
+      <c r="D110" s="11">
+        <v>6.34</v>
+      </c>
+      <c r="E110" s="11">
+        <v>126.72</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
+      <c r="A111" s="1">
+        <v>57</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="11">
+        <v>79.2</v>
+      </c>
+      <c r="D111" s="11">
+        <v>3.17</v>
+      </c>
+      <c r="E111" s="11">
+        <v>63.36</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
+      <c r="A112" s="1">
+        <v>58</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" s="11">
+        <v>525.98</v>
+      </c>
+      <c r="D112" s="11">
+        <v>21.04</v>
+      </c>
+      <c r="E112" s="11">
+        <v>420.78</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="A113" s="1">
+        <v>59</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" s="11">
+        <v>202.3</v>
+      </c>
+      <c r="D113" s="11">
+        <v>8.09</v>
+      </c>
+      <c r="E113" s="11">
+        <v>161.84</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
+      <c r="A114" s="1">
+        <v>60</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C114" s="11">
+        <v>202.3</v>
+      </c>
+      <c r="D114" s="11">
+        <v>8.09</v>
+      </c>
+      <c r="E114" s="11">
+        <v>161.84</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
+      <c r="A115" s="1">
+        <v>61</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" s="11">
+        <v>606.9</v>
+      </c>
+      <c r="D115" s="11">
+        <v>24.28</v>
+      </c>
+      <c r="E115" s="11">
+        <v>485.52</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="A116" s="1">
+        <v>62</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" s="11">
+        <v>102.3</v>
+      </c>
+      <c r="D116" s="11">
+        <v>4.09</v>
+      </c>
+      <c r="E116" s="11">
+        <v>81.84</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
+      <c r="A117" s="1">
+        <v>63</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" s="11">
+        <v>20.7</v>
+      </c>
+      <c r="D117" s="11">
+        <v>0.83</v>
+      </c>
+      <c r="E117" s="11">
+        <v>16.56</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="A118" s="1">
+        <v>64</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" s="11">
+        <v>404.6</v>
+      </c>
+      <c r="D118" s="11">
+        <v>16.18</v>
+      </c>
+      <c r="E118" s="11">
+        <v>323.68</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
+      <c r="A119" s="1">
+        <v>65</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" s="11">
+        <v>202.3</v>
+      </c>
+      <c r="D119" s="11">
+        <v>8.09</v>
+      </c>
+      <c r="E119" s="11">
+        <v>161.84</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="A120" s="1">
+        <v>66</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" s="11">
+        <v>370.6</v>
+      </c>
+      <c r="D120" s="11">
+        <v>14.82</v>
+      </c>
+      <c r="E120" s="11">
+        <v>296.48</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
+      <c r="A121" s="1">
+        <v>67</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C121" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="D121" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="E121" s="11">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="A122" s="1">
+        <v>68</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" s="11">
+        <v>525.98</v>
+      </c>
+      <c r="D122" s="11">
+        <v>21.04</v>
+      </c>
+      <c r="E122" s="11">
+        <v>420.78</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="A123" s="1">
+        <v>69</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" s="11">
+        <v>17.94</v>
+      </c>
+      <c r="D123" s="11">
+        <v>0.72</v>
+      </c>
+      <c r="E123" s="11">
+        <v>14.35</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="A124" s="1">
+        <v>70</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" s="11">
+        <v>158.4</v>
+      </c>
+      <c r="D124" s="11">
+        <v>6.34</v>
+      </c>
+      <c r="E124" s="11">
+        <v>126.72</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
+      <c r="A125" s="1">
+        <v>71</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" s="11">
+        <v>79.2</v>
+      </c>
+      <c r="D125" s="11">
+        <v>3.17</v>
+      </c>
+      <c r="E125" s="11">
+        <v>63.36</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
+      <c r="A126" s="1">
+        <v>72</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C126" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="D126" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="E126" s="11">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127" s="1">
+        <v>73</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C127" s="11">
+        <v>559.2</v>
+      </c>
+      <c r="D127" s="11">
+        <v>22.37</v>
+      </c>
+      <c r="E127" s="11">
+        <v>447.36</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="A128" s="1">
+        <v>74</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" s="11">
+        <v>336.6</v>
+      </c>
+      <c r="D128" s="11">
+        <v>13.46</v>
+      </c>
+      <c r="E128" s="11">
+        <v>269.28</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
+      <c r="A129" s="1">
+        <v>75</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" s="11">
+        <v>79.2</v>
+      </c>
+      <c r="D129" s="11">
+        <v>3.17</v>
+      </c>
+      <c r="E129" s="11">
+        <v>63.36</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
+      <c r="A130" s="1">
+        <v>76</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" s="11">
+        <v>202.3</v>
+      </c>
+      <c r="D130" s="11">
+        <v>8.09</v>
+      </c>
+      <c r="E130" s="11">
+        <v>161.84</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
+      <c r="A131" s="1">
+        <v>77</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C131" s="11">
+        <v>380.8</v>
+      </c>
+      <c r="D131" s="11">
+        <v>15.23</v>
+      </c>
+      <c r="E131" s="11">
+        <v>304.64</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
+      <c r="A132" s="1">
+        <v>78</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" s="11">
+        <v>420.75</v>
+      </c>
+      <c r="D132" s="11">
+        <v>16.83</v>
+      </c>
+      <c r="E132" s="11">
+        <v>336.6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
+      <c r="A133" s="1">
+        <v>79</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C133" s="11">
+        <v>158.4</v>
+      </c>
+      <c r="D133" s="11">
+        <v>6.34</v>
+      </c>
+      <c r="E133" s="11">
+        <v>126.72</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
+      <c r="A134" s="1">
+        <v>80</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C134" s="11">
+        <v>202.3</v>
+      </c>
+      <c r="D134" s="11">
+        <v>8.09</v>
+      </c>
+      <c r="E134" s="11">
+        <v>161.84</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
+      <c r="A135" s="1">
+        <v>81</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C135" s="11">
+        <v>79.2</v>
+      </c>
+      <c r="D135" s="11">
+        <v>3.17</v>
+      </c>
+      <c r="E135" s="11">
+        <v>63.36</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
+      <c r="A136" s="1">
+        <v>82</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136" s="11">
+        <v>693.0</v>
+      </c>
+      <c r="D136" s="11">
+        <v>27.72</v>
+      </c>
+      <c r="E136" s="11">
+        <v>554.4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
+      <c r="A137" s="1">
+        <v>83</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C137" s="11">
+        <v>202.3</v>
+      </c>
+      <c r="D137" s="11">
+        <v>8.09</v>
+      </c>
+      <c r="E137" s="11">
+        <v>161.84</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
+      <c r="A138" s="1">
+        <v>84</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C138" s="11">
+        <v>202.3</v>
+      </c>
+      <c r="D138" s="11">
+        <v>8.09</v>
+      </c>
+      <c r="E138" s="11">
+        <v>161.84</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
+      <c r="A139" s="1">
+        <v>85</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C139" s="11">
+        <v>95.2</v>
+      </c>
+      <c r="D139" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="E139" s="11">
+        <v>79.97</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
+      <c r="B140" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C140" s="11">
+        <f>SUM(C55:C139)</f>
+        <v>17720.83</v>
+      </c>
+      <c r="D140" s="11">
+        <f>SUM(D55:D139)</f>
+        <v>705.02</v>
+      </c>
+      <c r="E140" s="11">
+        <f>SUM(E55:E139)</f>
+        <v>14180.47</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
+      <c r="B144" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C144" s="11">
+        <f>C16+C25+C30+C36+C41+C48+C52+C140</f>
+        <v>23209.5</v>
+      </c>
+      <c r="D144" s="11">
+        <f>D16+D25+D30+D36+D41+D48+D52+D140</f>
+        <v>924.57</v>
+      </c>
+      <c r="E144" s="11">
+        <f>E16+E25+E30+E36+E41+E48+E52+E140</f>
+        <v>18571.4</v>
       </c>
     </row>
   </sheetData>
@@ -661,151 +2854,4 @@
   </headerFooter>
   <tableParts count="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:Z7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A7" sqref="A7:F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="18" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="17" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="22" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="27" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="21" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="9.10" bestFit="true" style="0"/>
-    <col min="8" max="8" width="9.10" bestFit="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" customHeight="1" ht="35">
-      <c r="A1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-    </row>
-    <row r="2" spans="1:26" customHeight="1" ht="25">
-      <c r="A2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-    </row>
-    <row r="6" spans="1:26">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="15">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>2.49</v>
-      </c>
-      <c r="D6" s="15">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1.0</v>
-      </c>
-      <c r="F6" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="17">
-        <f>SUM(B6:B6)</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17">
-        <f>SUM(D6:D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17">
-        <f>SUM(F6:F6)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
-</worksheet>
 </file>
--- a/public/Reportes/comisiones/comisiones.xlsx
+++ b/public/Reportes/comisiones/comisiones.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>DELFINITI DE MÉXICO S.A DE C.V</t>
   </si>
@@ -24,13 +24,13 @@
     <t>REPORTE DE COMISIONES</t>
   </si>
   <si>
-    <t>Del 20-01-2023 al 20-01-2023</t>
+    <t>Del 20-06-2023 al 25-06-2023</t>
   </si>
   <si>
     <t>#</t>
   </si>
   <si>
-    <t>COMISIONISTAS. - 15%</t>
+    <t>COMISIONISTAS. - 20%</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -51,19 +51,58 @@
     <t>FIRMA</t>
   </si>
   <si>
-    <t>NURIA ZENDEJAS</t>
+    <t>JESUS TRAVENTURES</t>
   </si>
   <si>
     <t xml:space="preserve">PORCENTAJE: </t>
   </si>
   <si>
+    <t>COMISIONISTAS. - 26%</t>
+  </si>
+  <si>
+    <t>SUNNY SIDE FONTAN</t>
+  </si>
+  <si>
+    <t>GRUPOS - 12.45%</t>
+  </si>
+  <si>
+    <t>OMAR CORIA GRUPOS</t>
+  </si>
+  <si>
+    <t>LOCACION - 10%</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO TELLO</t>
+  </si>
+  <si>
+    <t>DIANA EVELYN VARGAS</t>
+  </si>
+  <si>
+    <t>PROMOTORES CALLE - 10%</t>
+  </si>
+  <si>
+    <t>JOVANI MACIEL</t>
+  </si>
+  <si>
+    <t>YESENIA LEON</t>
+  </si>
+  <si>
+    <t>MOISES BAÑOS TORRES</t>
+  </si>
+  <si>
+    <t>TERAPEUTA - 0%</t>
+  </si>
+  <si>
+    <t>JOVANI MACIEL TERAPIAS</t>
+  </si>
+  <si>
     <t>CERRADORES - 3%</t>
   </si>
   <si>
     <t>SALVADOR HERNANDEZ ROMERO</t>
   </si>
   <si>
-    <t>DIRECTIVOS VENTAS - 0%</t>
+    <t>DIRECTIVO</t>
   </si>
   <si>
     <t>VICTOR CALDERON</t>
@@ -81,10 +120,13 @@
     <t>COMISION</t>
   </si>
   <si>
+    <t>COMISIÓN</t>
+  </si>
+  <si>
     <t>REPORTE V&amp;O</t>
   </si>
   <si>
-    <t>INGRESOS POR CANALES DE VENTAS DEL 20-01-2023 AL 20-01-2023</t>
+    <t>INGRESOS POR CANALES DE VENTAS DEL 20-06-2023 AL 25-06-2023</t>
   </si>
   <si>
     <t>CANAL DE VENTA</t>
@@ -250,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -284,6 +326,9 @@
     <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -308,17 +353,23 @@
     <xf xfId="0" fontId="7" numFmtId="10" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="164" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="9" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -625,20 +676,20 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O66"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A27" sqref="A27:C27"/>
+      <selection activeCell="C66" sqref="C66:K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="8.83203125" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="true" customWidth="true" style="1"/>
+    <col min="1" max="1" width="2" bestFit="true" customWidth="true" style="1"/>
     <col min="2" max="2" width="30" bestFit="true" customWidth="true" style="1"/>
-    <col min="3" max="3" width="11" bestFit="true" customWidth="true" style="1"/>
-    <col min="4" max="4" width="9" bestFit="true" customWidth="true" style="1"/>
-    <col min="5" max="5" width="21" bestFit="true" customWidth="true" style="1"/>
-    <col min="6" max="6" width="18" bestFit="true" customWidth="true" style="1"/>
+    <col min="3" max="3" width="15" bestFit="true" customWidth="true" style="1"/>
+    <col min="4" max="4" width="11" bestFit="true" customWidth="true" style="1"/>
+    <col min="5" max="5" width="33" bestFit="true" customWidth="true" style="1"/>
+    <col min="6" max="6" width="20" bestFit="true" customWidth="true" style="1"/>
     <col min="7" max="7" width="20" customWidth="true" style="1"/>
     <col min="8" max="8" width="12.1640625" customWidth="true" style="1"/>
   </cols>
@@ -711,28 +762,28 @@
       <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="13" t="s">
         <v>10</v>
       </c>
     </row>
@@ -743,81 +794,82 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="13">
-        <v>0</v>
-      </c>
-      <c r="D6" s="13">
-        <v>19.2</v>
-      </c>
-      <c r="E6" s="13">
-        <v>0</v>
-      </c>
-      <c r="F6" s="13">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>19.2</v>
-      </c>
+      <c r="C6" s="14">
+        <v>8884.0</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1776.8</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="14">
+        <v>1776.8</v>
+      </c>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="18">
         <f>SUM(C6:C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="17">
+        <v>8884</v>
+      </c>
+      <c r="D7" s="18">
         <f>SUM(D6:D6)</f>
-        <v>19.2</v>
-      </c>
-      <c r="E7" s="17">
+        <v>0</v>
+      </c>
+      <c r="E7" s="18">
         <f>SUM(E6:E6)</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="17">
+        <v>1776.8</v>
+      </c>
+      <c r="F7" s="18">
         <f>SUM(F6:F6)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="18">
         <f>SUM(G6:G6)</f>
-        <v>19.2</v>
-      </c>
-      <c r="H7" s="15"/>
+        <v>1776.8</v>
+      </c>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="19">
         <f>IF(ISERROR(G7/C7),0,(G7/C7))</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="13" t="s">
         <v>10</v>
       </c>
     </row>
@@ -828,78 +880,82 @@
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="13">
-        <v>0</v>
-      </c>
-      <c r="D11" s="13">
-        <v>19.2</v>
-      </c>
-      <c r="E11" s="13">
-        <v>0</v>
-      </c>
-      <c r="F11" s="13">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>19.2</v>
-      </c>
+      <c r="C11" s="14">
+        <v>3808.0</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0</v>
+      </c>
+      <c r="E11" s="14">
+        <v>990.08</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="14">
+        <v>990.08</v>
+      </c>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17">
+      <c r="C12" s="18">
+        <f>SUM(C11:C11)</f>
+        <v>3808</v>
+      </c>
+      <c r="D12" s="18">
         <f>SUM(D11:D11)</f>
-        <v>19.2</v>
-      </c>
-      <c r="E12" s="17">
+        <v>0</v>
+      </c>
+      <c r="E12" s="18">
         <f>SUM(E11:E11)</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="17">
+        <v>990.08</v>
+      </c>
+      <c r="F12" s="18">
         <f>SUM(F11:F11)</f>
         <v>0</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="18">
         <f>SUM(G11:G11)</f>
-        <v>19.2</v>
-      </c>
-      <c r="H12" s="15"/>
+        <v>990.08</v>
+      </c>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="19">
         <f>IF(ISERROR(G12/C12),0,(G12/C12))</f>
-        <v>0</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="13" t="s">
         <v>10</v>
       </c>
     </row>
@@ -910,114 +966,784 @@
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="13">
-        <v>0</v>
-      </c>
-      <c r="D16" s="13">
-        <v>19.2</v>
-      </c>
-      <c r="E16" s="13">
-        <v>0</v>
-      </c>
-      <c r="F16" s="13">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>19.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" customHeight="1" ht="40">
-      <c r="A17" s="1">
+      <c r="C16" s="14">
+        <v>1666.0</v>
+      </c>
+      <c r="D16" s="14">
+        <v>0</v>
+      </c>
+      <c r="E16" s="14">
+        <v>178.81</v>
+      </c>
+      <c r="F16" s="14">
+        <v>7.15</v>
+      </c>
+      <c r="G16" s="14">
+        <v>171.66</v>
+      </c>
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="18">
+        <f>SUM(C16:C16)</f>
+        <v>1666</v>
+      </c>
+      <c r="D17" s="18">
+        <f>SUM(D16:D16)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="18">
+        <f>SUM(E16:E16)</f>
+        <v>178.81</v>
+      </c>
+      <c r="F17" s="18">
+        <f>SUM(F16:F16)</f>
+        <v>7.15</v>
+      </c>
+      <c r="G17" s="18">
+        <f>SUM(G16:G16)</f>
+        <v>171.66</v>
+      </c>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="F18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="19">
+        <f>IF(ISERROR(G17/C17),0,(G17/C17))</f>
+        <v>0.10303721488595</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" customHeight="1" ht="40">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="14">
+        <v>18447.65</v>
+      </c>
+      <c r="D21" s="14">
+        <v>0</v>
+      </c>
+      <c r="E21" s="14">
+        <v>1590.32</v>
+      </c>
+      <c r="F21" s="14">
+        <v>63.62</v>
+      </c>
+      <c r="G21" s="14">
+        <v>1526.7</v>
+      </c>
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="1:15" customHeight="1" ht="40">
+      <c r="A22" s="1">
         <v>2</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="13">
-        <v>0</v>
-      </c>
-      <c r="D17" s="13">
-        <v>19.2</v>
-      </c>
-      <c r="E17" s="13">
-        <v>0</v>
-      </c>
-      <c r="F17" s="13">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>19.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16" t="s">
+      <c r="B22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="14">
+        <v>23263.5</v>
+      </c>
+      <c r="D22" s="14">
+        <v>0</v>
+      </c>
+      <c r="E22" s="14">
+        <v>2005.48</v>
+      </c>
+      <c r="F22" s="14">
+        <v>80.21</v>
+      </c>
+      <c r="G22" s="14">
+        <v>1925.27</v>
+      </c>
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17">
-        <f>SUM(D16:D17)</f>
-        <v>38.4</v>
-      </c>
-      <c r="E18" s="17">
-        <f>SUM(E16:E17)</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="17">
-        <f>SUM(F16:F17)</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="17">
-        <f>SUM(G16:G17)</f>
-        <v>38.4</v>
-      </c>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="F19" s="18" t="s">
+      <c r="C23" s="18">
+        <f>SUM(C21:C22)</f>
+        <v>41711.15</v>
+      </c>
+      <c r="D23" s="18">
+        <f>SUM(D21:D22)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="18">
+        <f>SUM(E21:E22)</f>
+        <v>3595.8</v>
+      </c>
+      <c r="F23" s="18">
+        <f>SUM(F21:F22)</f>
+        <v>143.83</v>
+      </c>
+      <c r="G23" s="18">
+        <f>SUM(G21:G22)</f>
+        <v>3451.97</v>
+      </c>
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="F24" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="10">
-        <f>IF(ISERROR(G18/C18),0,(G18/C18))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="14">
-        <f>C7</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="14">
-        <f>D7+D12+D18</f>
-        <v>76.8</v>
-      </c>
-      <c r="E23" s="14">
-        <f>E7+E12+E18</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="14">
-        <f>F7+F12+F18</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="14">
-        <f>G7+G12+G18</f>
-        <v>76.8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="12" t="s">
+      <c r="G24" s="19">
+        <f>IF(ISERROR(G23/C23),0,(G23/C23))</f>
+        <v>0.082758926569994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="E26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" customHeight="1" ht="40">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="14">
+        <v>11328.94</v>
+      </c>
+      <c r="D27" s="14">
+        <v>0</v>
+      </c>
+      <c r="E27" s="14">
+        <v>976.63</v>
+      </c>
+      <c r="F27" s="14">
+        <v>39.08</v>
+      </c>
+      <c r="G27" s="14">
+        <v>937.55</v>
+      </c>
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" spans="1:15" customHeight="1" ht="40">
+      <c r="A28" s="1">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="14">
+        <v>36577.15</v>
+      </c>
+      <c r="D28" s="14">
+        <v>10.53</v>
+      </c>
+      <c r="E28" s="14">
+        <v>3153.21</v>
+      </c>
+      <c r="F28" s="14">
+        <v>126.14</v>
+      </c>
+      <c r="G28" s="14">
+        <v>3037.6</v>
+      </c>
+      <c r="H28" s="14"/>
+    </row>
+    <row r="29" spans="1:15" customHeight="1" ht="40">
+      <c r="A29" s="1">
+        <v>3</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="14">
+        <v>2808.47</v>
+      </c>
+      <c r="D29" s="14">
+        <v>10.53</v>
+      </c>
+      <c r="E29" s="14">
+        <v>242.11</v>
+      </c>
+      <c r="F29" s="14">
+        <v>9.69</v>
+      </c>
+      <c r="G29" s="14">
+        <v>242.95</v>
+      </c>
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="18">
+        <f>SUM(C27:C29)</f>
+        <v>50714.56</v>
+      </c>
+      <c r="D30" s="18">
+        <f>SUM(D27:D29)</f>
+        <v>21.06</v>
+      </c>
+      <c r="E30" s="18">
+        <f>SUM(E27:E29)</f>
+        <v>4371.95</v>
+      </c>
+      <c r="F30" s="18">
+        <f>SUM(F27:F29)</f>
+        <v>174.91</v>
+      </c>
+      <c r="G30" s="18">
+        <f>SUM(G27:G29)</f>
+        <v>4218.1</v>
+      </c>
+      <c r="H30" s="16"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="F31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="19">
+        <f>IF(ISERROR(G30/C30),0,(G30/C30))</f>
+        <v>0.083173352977922</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" customHeight="1" ht="40">
+      <c r="A34" s="1">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="14">
+        <v>5520.0</v>
+      </c>
+      <c r="D34" s="14">
+        <v>0</v>
+      </c>
+      <c r="E34" s="14">
+        <v>600.0</v>
+      </c>
+      <c r="F34" s="14">
+        <v>24.0</v>
+      </c>
+      <c r="G34" s="14">
+        <v>576.0</v>
+      </c>
+      <c r="H34" s="14"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="16"/>
+      <c r="B35" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18">
+        <f>SUM(D34:D34)</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="18">
+        <f>SUM(E34:E34)</f>
+        <v>600</v>
+      </c>
+      <c r="F35" s="18">
+        <f>SUM(F34:F34)</f>
+        <v>24</v>
+      </c>
+      <c r="G35" s="18">
+        <f>SUM(G34:G34)</f>
+        <v>576</v>
+      </c>
+      <c r="H35" s="16"/>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="F36" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="19">
+        <f>IF(ISERROR(G35/C35),0,(G35/C35))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" customHeight="1" ht="40">
+      <c r="A39" s="1">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="14">
+        <v>80600.74</v>
+      </c>
+      <c r="D39" s="14">
+        <v>5.74</v>
+      </c>
+      <c r="E39" s="14">
+        <v>2084.49</v>
+      </c>
+      <c r="F39" s="14">
+        <v>83.39</v>
+      </c>
+      <c r="G39" s="14">
+        <v>2006.84</v>
+      </c>
+      <c r="H39" s="14"/>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="16"/>
+      <c r="B40" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18">
+        <f>SUM(D39:D39)</f>
+        <v>5.74</v>
+      </c>
+      <c r="E40" s="18">
+        <f>SUM(E39:E39)</f>
+        <v>2084.49</v>
+      </c>
+      <c r="F40" s="18">
+        <f>SUM(F39:F39)</f>
+        <v>83.39</v>
+      </c>
+      <c r="G40" s="18">
+        <f>SUM(G39:G39)</f>
+        <v>2006.84</v>
+      </c>
+      <c r="H40" s="16"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="F41" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="19">
+        <f>IF(ISERROR(G40/C40),0,(G40/C40))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" customHeight="1" ht="40">
+      <c r="A44" s="1">
+        <v>1</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="14">
+        <v>112138.71</v>
+      </c>
+      <c r="D44" s="14">
+        <v>5.74</v>
+      </c>
+      <c r="E44" s="14">
+        <v>3298.53</v>
+      </c>
+      <c r="F44" s="14">
+        <v>131.95</v>
+      </c>
+      <c r="G44" s="14">
+        <v>3172.32</v>
+      </c>
+      <c r="H44" s="14"/>
+    </row>
+    <row r="45" spans="1:15" customHeight="1" ht="40">
+      <c r="A45" s="1">
+        <v>2</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="14">
+        <v>112138.71</v>
+      </c>
+      <c r="D45" s="14">
+        <v>5.74</v>
+      </c>
+      <c r="E45" s="14">
+        <v>952.35</v>
+      </c>
+      <c r="F45" s="14">
+        <v>38.09</v>
+      </c>
+      <c r="G45" s="14">
+        <v>920.0</v>
+      </c>
+      <c r="H45" s="14"/>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="16"/>
+      <c r="B46" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18">
+        <f>SUM(D44:D45)</f>
+        <v>11.48</v>
+      </c>
+      <c r="E46" s="18">
+        <f>SUM(E44:E45)</f>
+        <v>4250.88</v>
+      </c>
+      <c r="F46" s="18">
+        <f>SUM(F44:F45)</f>
+        <v>170.04</v>
+      </c>
+      <c r="G46" s="18">
+        <f>SUM(G44:G45)</f>
+        <v>4092.32</v>
+      </c>
+      <c r="H46" s="16"/>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="F47" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="19">
+        <f>IF(ISERROR(G46/C46),0,(G46/C46))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" s="15">
+        <f>C7+C12+C17+C23+C30</f>
+        <v>106783.71</v>
+      </c>
+      <c r="D49" s="15">
+        <f>D7+D12+D17+D23+D30+D35+D40+D46</f>
+        <v>38.28</v>
+      </c>
+      <c r="E49" s="15">
+        <f>E7+E12+E17+E23+E30+E35+E40+E46</f>
+        <v>17848.81</v>
+      </c>
+      <c r="F49" s="15">
+        <f>F7+F12+F17+F23+F30+F35+F40+F46</f>
+        <v>603.32</v>
+      </c>
+      <c r="G49" s="15">
+        <f>G7+G12+G17+G23+G30+G35+G40+G46</f>
+        <v>17283.77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="B53" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="13"/>
+      <c r="B54" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H54" s="13"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="B55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2</v>
+      </c>
+      <c r="D55" s="14">
+        <v>10.53</v>
+      </c>
+      <c r="E55" s="14">
+        <v>2.87</v>
+      </c>
+      <c r="F55" s="14">
+        <v>2.87</v>
+      </c>
+      <c r="G55" s="14">
+        <v>2.87</v>
+      </c>
+      <c r="H55" s="14"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="B56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2</v>
+      </c>
+      <c r="D56" s="14">
+        <v>10.53</v>
+      </c>
+      <c r="E56" s="14">
+        <v>2.87</v>
+      </c>
+      <c r="F56" s="14">
+        <v>2.87</v>
+      </c>
+      <c r="G56" s="14">
+        <v>2.87</v>
+      </c>
+      <c r="H56" s="14"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="1">
+        <v>1</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" s="1">
+        <v>2</v>
+      </c>
+      <c r="D61" s="14">
+        <v>10.53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="1">
+        <v>2</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" s="1">
+        <v>4</v>
+      </c>
+      <c r="D62" s="1">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="1">
+        <v>3</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2</v>
+      </c>
+      <c r="D63" s="1">
+        <v>10.53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="1">
+        <v>4</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" s="1">
+        <v>4</v>
+      </c>
+      <c r="D64" s="1">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="1">
+        <v>5</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" s="1">
+        <v>4</v>
+      </c>
+      <c r="D65" s="1">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="16"/>
+      <c r="B66" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" s="17">
+        <f>C61+C63</f>
+        <v>4</v>
+      </c>
+      <c r="D66" s="18">
+        <f>D61+D62+D63+D64+D65</f>
+        <v>38.28</v>
+      </c>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="23"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -1066,71 +1792,71 @@
   <sheetData>
     <row r="1" spans="1:26" customHeight="1" ht="35">
       <c r="A1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+        <v>35</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:26" customHeight="1" ht="25">
       <c r="A2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+        <v>36</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
+      <c r="A5" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B6" s="22">
         <v>0</v>
@@ -1150,27 +1876,27 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B7" s="22">
-        <v>0</v>
+        <v>15557.76</v>
       </c>
       <c r="C7">
         <v>3.0</v>
       </c>
       <c r="D7" s="22">
-        <v>0</v>
+        <v>466.72</v>
       </c>
       <c r="E7">
         <v>1.0</v>
       </c>
       <c r="F7" s="22">
-        <v>0</v>
+        <v>155.57</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B8" s="22">
         <v>0</v>
@@ -1190,67 +1916,67 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B9" s="22">
-        <v>0</v>
+        <v>1436.21</v>
       </c>
       <c r="C9">
         <v>3.0</v>
       </c>
       <c r="D9" s="22">
-        <v>0</v>
+        <v>43.09</v>
       </c>
       <c r="E9">
         <v>0.0</v>
       </c>
       <c r="F9" s="22">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B10" s="22">
-        <v>0</v>
+        <v>35957.92</v>
       </c>
       <c r="C10">
         <v>3.5</v>
       </c>
       <c r="D10" s="22">
-        <v>0</v>
+        <v>1258.54</v>
       </c>
       <c r="E10">
         <v>1.0</v>
       </c>
       <c r="F10" s="22">
-        <v>0</v>
+        <v>359.6</v>
       </c>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B11" s="22">
-        <v>0</v>
+        <v>43719.47</v>
       </c>
       <c r="C11">
         <v>3.5</v>
       </c>
       <c r="D11" s="22">
-        <v>0</v>
+        <v>1530.18</v>
       </c>
       <c r="E11">
         <v>1.0</v>
       </c>
       <c r="F11" s="22">
-        <v>0</v>
+        <v>437.18</v>
       </c>
     </row>
     <row r="12" spans="1:26">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B12" s="22">
         <v>0</v>
@@ -1269,22 +1995,22 @@
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="24">
+      <c r="A13" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="27">
         <f>SUM(B6:B12)</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24">
+        <v>96671.36</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27">
         <f>SUM(D6:D12)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24">
+        <v>3298.53</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27">
         <f>SUM(F6:F12)</f>
-        <v>0</v>
+        <v>952.35</v>
       </c>
     </row>
   </sheetData>

--- a/public/Reportes/comisiones/comisiones.xlsx
+++ b/public/Reportes/comisiones/comisiones.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
   <si>
     <t>DELFINITI DE MÉXICO S.A DE C.V</t>
   </si>
@@ -24,43 +24,67 @@
     <t>REPORTE DE COMISIONES</t>
   </si>
   <si>
-    <t>Del 20-06-2023 al 25-06-2023</t>
+    <t>Del 01-02-2023 al 21-07-2023</t>
   </si>
   <si>
     <t>#</t>
   </si>
   <si>
+    <t>COMISIONISTAS. - 15%</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>VISITAS</t>
+  </si>
+  <si>
+    <t>COM. BRUTA S/IVA</t>
+  </si>
+  <si>
+    <t>DESC. IMPUESTO</t>
+  </si>
+  <si>
+    <t>A PAGAR</t>
+  </si>
+  <si>
+    <t>FIRMA</t>
+  </si>
+  <si>
+    <t>AGENTE 1</t>
+  </si>
+  <si>
+    <t>DAFNY SERRALDE MENCHACA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORCENTAJE: </t>
+  </si>
+  <si>
+    <t>COMISIONISTAS. - 26%</t>
+  </si>
+  <si>
+    <t>SUNNY SIDE FONTAN</t>
+  </si>
+  <si>
+    <t>SUNNY SIDE CLUB MED</t>
+  </si>
+  <si>
     <t>COMISIONISTAS. - 20%</t>
   </si>
   <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>VISITAS</t>
-  </si>
-  <si>
-    <t>COM. BRUTA S/IVA</t>
-  </si>
-  <si>
-    <t>DESC. IMPUESTO</t>
-  </si>
-  <si>
-    <t>A PAGAR</t>
-  </si>
-  <si>
-    <t>FIRMA</t>
-  </si>
-  <si>
     <t>JESUS TRAVENTURES</t>
   </si>
   <si>
-    <t xml:space="preserve">PORCENTAJE: </t>
-  </si>
-  <si>
-    <t>COMISIONISTAS. - 26%</t>
-  </si>
-  <si>
-    <t>SUNNY SIDE FONTAN</t>
+    <t>QUALTON CLUB</t>
+  </si>
+  <si>
+    <t>DIRECTO - 0%</t>
+  </si>
+  <si>
+    <t>ING. MAURICIO ZENDEJAS</t>
+  </si>
+  <si>
+    <t>VICTOR HUGO CALDERON</t>
   </si>
   <si>
     <t>GRUPOS - 12.45%</t>
@@ -69,30 +93,42 @@
     <t>OMAR CORIA GRUPOS</t>
   </si>
   <si>
+    <t>GRUPOS - 7.47%</t>
+  </si>
+  <si>
+    <t>VICTOR CALDERON GRUPOS</t>
+  </si>
+  <si>
     <t>LOCACION - 10%</t>
   </si>
   <si>
+    <t>DIANA EVELYN VARGAS</t>
+  </si>
+  <si>
     <t>JOSE ANTONIO TELLO</t>
   </si>
   <si>
-    <t>DIANA EVELYN VARGAS</t>
-  </si>
-  <si>
     <t>PROMOTORES CALLE - 10%</t>
   </si>
   <si>
+    <t>MOISES BAÑOS TORRES</t>
+  </si>
+  <si>
     <t>JOVANI MACIEL</t>
   </si>
   <si>
     <t>YESENIA LEON</t>
   </si>
   <si>
-    <t>MOISES BAÑOS TORRES</t>
-  </si>
-  <si>
     <t>TERAPEUTA - 0%</t>
   </si>
   <si>
+    <t>ANTONIO TELLO</t>
+  </si>
+  <si>
+    <t>DAFNY SERRALDE</t>
+  </si>
+  <si>
     <t>JOVANI MACIEL TERAPIAS</t>
   </si>
   <si>
@@ -126,7 +162,7 @@
     <t>REPORTE V&amp;O</t>
   </si>
   <si>
-    <t>INGRESOS POR CANALES DE VENTAS DEL 20-06-2023 AL 25-06-2023</t>
+    <t>INGRESOS POR CANALES DE VENTAS DEL 01-02-2023 AL 21-07-2023</t>
   </si>
   <si>
     <t>CANAL DE VENTA</t>
@@ -676,18 +712,18 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O66"/>
+  <dimension ref="A1:O99"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C66" sqref="C66:K66"/>
+      <selection activeCell="C99" sqref="C99:K99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="8.83203125" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="2" bestFit="true" customWidth="true" style="1"/>
+    <col min="1" max="1" width="3" bestFit="true" customWidth="true" style="1"/>
     <col min="2" max="2" width="30" bestFit="true" customWidth="true" style="1"/>
-    <col min="3" max="3" width="15" bestFit="true" customWidth="true" style="1"/>
-    <col min="4" max="4" width="11" bestFit="true" customWidth="true" style="1"/>
+    <col min="3" max="3" width="17" bestFit="true" customWidth="true" style="1"/>
+    <col min="4" max="4" width="12" bestFit="true" customWidth="true" style="1"/>
     <col min="5" max="5" width="33" bestFit="true" customWidth="true" style="1"/>
     <col min="6" max="6" width="20" bestFit="true" customWidth="true" style="1"/>
     <col min="7" max="7" width="20" customWidth="true" style="1"/>
@@ -795,955 +831,1583 @@
         <v>11</v>
       </c>
       <c r="C6" s="14">
-        <v>8884.0</v>
+        <v>15860.0</v>
       </c>
       <c r="D6" s="14">
         <v>0</v>
       </c>
       <c r="E6" s="14">
-        <v>1776.8</v>
+        <v>2379.0</v>
       </c>
       <c r="F6" s="14">
         <v>0.0</v>
       </c>
       <c r="G6" s="14">
-        <v>1776.8</v>
+        <v>2379.0</v>
       </c>
       <c r="H6" s="14"/>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17" t="s">
+    <row r="7" spans="1:15" customHeight="1" ht="40">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="14">
+        <v>30028.0</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0</v>
+      </c>
+      <c r="E7" s="14">
+        <v>4504.2</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="14">
+        <v>4504.2</v>
+      </c>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="18">
-        <f>SUM(C6:C6)</f>
-        <v>8884</v>
-      </c>
-      <c r="D7" s="18">
-        <f>SUM(D6:D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="18">
-        <f>SUM(E6:E6)</f>
-        <v>1776.8</v>
-      </c>
-      <c r="F7" s="18">
-        <f>SUM(F6:F6)</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="18">
-        <f>SUM(G6:G6)</f>
-        <v>1776.8</v>
-      </c>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="F8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="19">
-        <f>IF(ISERROR(G7/C7),0,(G7/C7))</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="12" t="s">
+      <c r="C8" s="18">
+        <f>SUM(C6:C7)</f>
+        <v>45888</v>
+      </c>
+      <c r="D8" s="18">
+        <f>SUM(D6:D7)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="18">
+        <f>SUM(E6:E7)</f>
+        <v>6883.2</v>
+      </c>
+      <c r="F8" s="18">
+        <f>SUM(F6:F7)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="18">
+        <f>SUM(G6:G7)</f>
+        <v>6883.2</v>
+      </c>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="F9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="19">
+        <f>IF(ISERROR(G8/C8),0,(G8/C8))</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" customHeight="1" ht="40">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="14">
+        <v>109647.3</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0</v>
+      </c>
+      <c r="E12" s="14">
+        <v>28508.3</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="G12" s="14">
+        <v>28508.3</v>
+      </c>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:15" customHeight="1" ht="40">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="14">
+        <v>11900.0</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0</v>
+      </c>
+      <c r="E13" s="14">
+        <v>3094.0</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="G13" s="14">
+        <v>3094.0</v>
+      </c>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="18">
+        <f>SUM(C12:C13)</f>
+        <v>121547.3</v>
+      </c>
+      <c r="D14" s="18">
+        <f>SUM(D12:D13)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="18">
+        <f>SUM(E12:E13)</f>
+        <v>31602.3</v>
+      </c>
+      <c r="F14" s="18">
+        <f>SUM(F12:F13)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="18">
+        <f>SUM(G12:G13)</f>
+        <v>31602.3</v>
+      </c>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="F15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="G15" s="19">
+        <f>IF(ISERROR(G14/C14),0,(G14/C14))</f>
+        <v>0.2600000164545</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D17" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E17" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F17" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G17" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H17" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:15" customHeight="1" ht="40">
-      <c r="A11" s="1">
+    <row r="18" spans="1:15" customHeight="1" ht="40">
+      <c r="A18" s="1">
         <v>1</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="14">
-        <v>3808.0</v>
-      </c>
-      <c r="D11" s="14">
-        <v>0</v>
-      </c>
-      <c r="E11" s="14">
-        <v>990.08</v>
-      </c>
-      <c r="F11" s="14">
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="14">
+        <v>122890.9</v>
+      </c>
+      <c r="D18" s="14">
+        <v>194.84</v>
+      </c>
+      <c r="E18" s="14">
+        <v>24578.18</v>
+      </c>
+      <c r="F18" s="14">
         <v>0.0</v>
       </c>
-      <c r="G11" s="14">
-        <v>990.08</v>
-      </c>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17" t="s">
+      <c r="G18" s="14">
+        <v>24773.02</v>
+      </c>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="1:15" customHeight="1" ht="40">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="14">
+        <v>74832.0</v>
+      </c>
+      <c r="D19" s="14">
+        <v>0</v>
+      </c>
+      <c r="E19" s="14">
+        <v>14966.4</v>
+      </c>
+      <c r="F19" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="G19" s="14">
+        <v>14966.4</v>
+      </c>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="18">
-        <f>SUM(C11:C11)</f>
-        <v>3808</v>
-      </c>
-      <c r="D12" s="18">
-        <f>SUM(D11:D11)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="18">
-        <f>SUM(E11:E11)</f>
-        <v>990.08</v>
-      </c>
-      <c r="F12" s="18">
-        <f>SUM(F11:F11)</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="18">
-        <f>SUM(G11:G11)</f>
-        <v>990.08</v>
-      </c>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="F13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="19">
-        <f>IF(ISERROR(G12/C12),0,(G12/C12))</f>
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="12" t="s">
+      <c r="C20" s="18">
+        <f>SUM(C18:C19)</f>
+        <v>197722.9</v>
+      </c>
+      <c r="D20" s="18">
+        <f>SUM(D18:D19)</f>
+        <v>194.84</v>
+      </c>
+      <c r="E20" s="18">
+        <f>SUM(E18:E19)</f>
+        <v>39544.58</v>
+      </c>
+      <c r="F20" s="18">
+        <f>SUM(F18:F19)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="18">
+        <f>SUM(G18:G19)</f>
+        <v>39739.42</v>
+      </c>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="F21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="19">
+        <f>IF(ISERROR(G20/C20),0,(G20/C20))</f>
+        <v>0.20098541949364</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="13" t="s">
+      <c r="B23" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D23" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E23" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F23" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G23" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H23" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:15" customHeight="1" ht="40">
-      <c r="A16" s="1">
+    <row r="24" spans="1:15" customHeight="1" ht="40">
+      <c r="A24" s="1">
         <v>1</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="14">
-        <v>1666.0</v>
-      </c>
-      <c r="D16" s="14">
-        <v>0</v>
-      </c>
-      <c r="E16" s="14">
-        <v>178.81</v>
-      </c>
-      <c r="F16" s="14">
-        <v>7.15</v>
-      </c>
-      <c r="G16" s="14">
-        <v>171.66</v>
-      </c>
-      <c r="H16" s="14"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17" t="s">
+      <c r="B24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="14">
+        <v>16762.8</v>
+      </c>
+      <c r="D24" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E24" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="F24" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="G24" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="1:15" customHeight="1" ht="40">
+      <c r="A25" s="1">
+        <v>2</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="14">
+        <v>3150.0</v>
+      </c>
+      <c r="D25" s="14">
+        <v>0</v>
+      </c>
+      <c r="E25" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="F25" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="G25" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="16"/>
+      <c r="B26" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="18">
-        <f>SUM(C16:C16)</f>
-        <v>1666</v>
-      </c>
-      <c r="D17" s="18">
-        <f>SUM(D16:D16)</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="18">
-        <f>SUM(E16:E16)</f>
-        <v>178.81</v>
-      </c>
-      <c r="F17" s="18">
-        <f>SUM(F16:F16)</f>
-        <v>7.15</v>
-      </c>
-      <c r="G17" s="18">
-        <f>SUM(G16:G16)</f>
-        <v>171.66</v>
-      </c>
-      <c r="H17" s="16"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="F18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="19">
-        <f>IF(ISERROR(G17/C17),0,(G17/C17))</f>
-        <v>0.10303721488595</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="12" t="s">
+      <c r="C26" s="18">
+        <f>SUM(C24:C25)</f>
+        <v>19912.8</v>
+      </c>
+      <c r="D26" s="18">
+        <f>SUM(D24:D25)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="18">
+        <f>SUM(E24:E25)</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="18">
+        <f>SUM(F24:F25)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="18">
+        <f>SUM(G24:G25)</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="16"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="F27" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="19">
+        <f>IF(ISERROR(G26/C26),0,(G26/C26))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="13" t="s">
+      <c r="B29" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D29" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E29" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F29" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G29" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H29" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:15" customHeight="1" ht="40">
-      <c r="A21" s="1">
+    <row r="30" spans="1:15" customHeight="1" ht="40">
+      <c r="A30" s="1">
         <v>1</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="14">
+        <v>130703.4</v>
+      </c>
+      <c r="D30" s="14">
+        <v>93.39</v>
+      </c>
+      <c r="E30" s="14">
+        <v>14028.01</v>
+      </c>
+      <c r="F30" s="14">
+        <v>561.08</v>
+      </c>
+      <c r="G30" s="14">
+        <v>13560.32</v>
+      </c>
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="16"/>
+      <c r="B31" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="18">
+        <f>SUM(C30:C30)</f>
+        <v>130703.4</v>
+      </c>
+      <c r="D31" s="18">
+        <f>SUM(D30:D30)</f>
+        <v>93.39</v>
+      </c>
+      <c r="E31" s="18">
+        <f>SUM(E30:E30)</f>
+        <v>14028.01</v>
+      </c>
+      <c r="F31" s="18">
+        <f>SUM(F30:F30)</f>
+        <v>561.08</v>
+      </c>
+      <c r="G31" s="18">
+        <f>SUM(G30:G30)</f>
+        <v>13560.32</v>
+      </c>
+      <c r="H31" s="16"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="F32" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="19">
+        <f>IF(ISERROR(G31/C31),0,(G31/C31))</f>
+        <v>0.10374879306889</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" customHeight="1" ht="40">
+      <c r="A35" s="1">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="14">
+        <v>1190.0</v>
+      </c>
+      <c r="D35" s="14">
+        <v>0</v>
+      </c>
+      <c r="E35" s="14">
+        <v>76.63</v>
+      </c>
+      <c r="F35" s="14">
+        <v>3.07</v>
+      </c>
+      <c r="G35" s="14">
+        <v>73.56</v>
+      </c>
+      <c r="H35" s="14"/>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="16"/>
+      <c r="B36" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="18">
+        <f>SUM(C35:C35)</f>
+        <v>1190</v>
+      </c>
+      <c r="D36" s="18">
+        <f>SUM(D35:D35)</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="18">
+        <f>SUM(E35:E35)</f>
+        <v>76.63</v>
+      </c>
+      <c r="F36" s="18">
+        <f>SUM(F35:F35)</f>
+        <v>3.07</v>
+      </c>
+      <c r="G36" s="18">
+        <f>SUM(G35:G35)</f>
+        <v>73.56</v>
+      </c>
+      <c r="H36" s="16"/>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="F37" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="19">
+        <f>IF(ISERROR(G36/C36),0,(G36/C36))</f>
+        <v>0.06181512605042</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" customHeight="1" ht="40">
+      <c r="A40" s="1">
+        <v>1</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="14">
+        <v>755346.92</v>
+      </c>
+      <c r="D40" s="14">
+        <v>315.98</v>
+      </c>
+      <c r="E40" s="14">
+        <v>65116.28</v>
+      </c>
+      <c r="F40" s="14">
+        <v>2604.99</v>
+      </c>
+      <c r="G40" s="14">
+        <v>62827.27</v>
+      </c>
+      <c r="H40" s="14"/>
+    </row>
+    <row r="41" spans="1:15" customHeight="1" ht="40">
+      <c r="A41" s="1">
+        <v>2</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="14">
+        <v>417575.15</v>
+      </c>
+      <c r="D41" s="14">
+        <v>200.08</v>
+      </c>
+      <c r="E41" s="14">
+        <v>35998.02</v>
+      </c>
+      <c r="F41" s="14">
+        <v>1440.05</v>
+      </c>
+      <c r="G41" s="14">
+        <v>34758.05</v>
+      </c>
+      <c r="H41" s="14"/>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="16"/>
+      <c r="B42" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="18">
+        <f>SUM(C40:C41)</f>
+        <v>1172922.07</v>
+      </c>
+      <c r="D42" s="18">
+        <f>SUM(D40:D41)</f>
+        <v>516.06</v>
+      </c>
+      <c r="E42" s="18">
+        <f>SUM(E40:E41)</f>
+        <v>101114.3</v>
+      </c>
+      <c r="F42" s="18">
+        <f>SUM(F40:F41)</f>
+        <v>4045.04</v>
+      </c>
+      <c r="G42" s="18">
+        <f>SUM(G40:G41)</f>
+        <v>97585.32</v>
+      </c>
+      <c r="H42" s="16"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="F43" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="19">
+        <f>IF(ISERROR(G42/C42),0,(G42/C42))</f>
+        <v>0.083198468590501</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" customHeight="1" ht="40">
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="14">
+        <v>604115.13</v>
+      </c>
+      <c r="D46" s="14">
+        <v>537.12</v>
+      </c>
+      <c r="E46" s="14">
+        <v>52079.07</v>
+      </c>
+      <c r="F46" s="14">
+        <v>2083.44</v>
+      </c>
+      <c r="G46" s="14">
+        <v>50532.75</v>
+      </c>
+      <c r="H46" s="14"/>
+    </row>
+    <row r="47" spans="1:15" customHeight="1" ht="40">
+      <c r="A47" s="1">
+        <v>2</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="14">
+        <v>220269.47</v>
+      </c>
+      <c r="D47" s="14">
+        <v>26.34</v>
+      </c>
+      <c r="E47" s="14">
+        <v>18988.84</v>
+      </c>
+      <c r="F47" s="14">
+        <v>759.65</v>
+      </c>
+      <c r="G47" s="14">
+        <v>18255.53</v>
+      </c>
+      <c r="H47" s="14"/>
+    </row>
+    <row r="48" spans="1:15" customHeight="1" ht="40">
+      <c r="A48" s="1">
+        <v>3</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="14">
+        <v>801389.77</v>
+      </c>
+      <c r="D48" s="14">
+        <v>500.25</v>
+      </c>
+      <c r="E48" s="14">
+        <v>69085.55</v>
+      </c>
+      <c r="F48" s="14">
+        <v>2763.79</v>
+      </c>
+      <c r="G48" s="14">
+        <v>66822.01</v>
+      </c>
+      <c r="H48" s="14"/>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="16"/>
+      <c r="B49" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="18">
+        <f>SUM(C46:C48)</f>
+        <v>1625774.37</v>
+      </c>
+      <c r="D49" s="18">
+        <f>SUM(D46:D48)</f>
+        <v>1063.71</v>
+      </c>
+      <c r="E49" s="18">
+        <f>SUM(E46:E48)</f>
+        <v>140153.46</v>
+      </c>
+      <c r="F49" s="18">
+        <f>SUM(F46:F48)</f>
+        <v>5606.88</v>
+      </c>
+      <c r="G49" s="18">
+        <f>SUM(G46:G48)</f>
+        <v>135610.29</v>
+      </c>
+      <c r="H49" s="16"/>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="F50" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="19">
+        <f>IF(ISERROR(G49/C49),0,(G49/C49))</f>
+        <v>0.083412737033122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" customHeight="1" ht="40">
+      <c r="A53" s="1">
+        <v>1</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" s="14">
+        <v>46483.0</v>
+      </c>
+      <c r="D53" s="14">
+        <v>0</v>
+      </c>
+      <c r="E53" s="14">
+        <v>5400.0</v>
+      </c>
+      <c r="F53" s="14">
+        <v>216.0</v>
+      </c>
+      <c r="G53" s="14">
+        <v>5184.0</v>
+      </c>
+      <c r="H53" s="14"/>
+    </row>
+    <row r="54" spans="1:15" customHeight="1" ht="40">
+      <c r="A54" s="1">
+        <v>2</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" s="14">
+        <v>139380.0</v>
+      </c>
+      <c r="D54" s="14">
+        <v>0</v>
+      </c>
+      <c r="E54" s="14">
+        <v>19900.0</v>
+      </c>
+      <c r="F54" s="14">
+        <v>796.0</v>
+      </c>
+      <c r="G54" s="14">
+        <v>19104.0</v>
+      </c>
+      <c r="H54" s="14"/>
+    </row>
+    <row r="55" spans="1:15" customHeight="1" ht="40">
+      <c r="A55" s="1">
+        <v>3</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" s="14">
+        <v>44965.0</v>
+      </c>
+      <c r="D55" s="14">
+        <v>0</v>
+      </c>
+      <c r="E55" s="14">
+        <v>6100.0</v>
+      </c>
+      <c r="F55" s="14">
+        <v>244.0</v>
+      </c>
+      <c r="G55" s="14">
+        <v>5856.0</v>
+      </c>
+      <c r="H55" s="14"/>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="16"/>
+      <c r="B56" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18">
+        <f>SUM(D53:D55)</f>
+        <v>0</v>
+      </c>
+      <c r="E56" s="18">
+        <f>SUM(E53:E55)</f>
+        <v>31400</v>
+      </c>
+      <c r="F56" s="18">
+        <f>SUM(F53:F55)</f>
+        <v>1256</v>
+      </c>
+      <c r="G56" s="18">
+        <f>SUM(G53:G55)</f>
+        <v>30144</v>
+      </c>
+      <c r="H56" s="16"/>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="F57" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="19">
+        <f>IF(ISERROR(G56/C56),0,(G56/C56))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" customHeight="1" ht="40">
+      <c r="A60" s="1">
+        <v>1</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="14">
+        <v>1809068.07</v>
+      </c>
+      <c r="D60" s="14">
+        <v>489.56</v>
+      </c>
+      <c r="E60" s="14">
+        <v>46785.76</v>
+      </c>
+      <c r="F60" s="14">
+        <v>1872.02</v>
+      </c>
+      <c r="G60" s="14">
+        <v>45403.3</v>
+      </c>
+      <c r="H60" s="14"/>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="16"/>
+      <c r="B61" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18">
+        <f>SUM(D60:D60)</f>
+        <v>489.56</v>
+      </c>
+      <c r="E61" s="18">
+        <f>SUM(E60:E60)</f>
+        <v>46785.76</v>
+      </c>
+      <c r="F61" s="18">
+        <f>SUM(F60:F60)</f>
+        <v>1872.02</v>
+      </c>
+      <c r="G61" s="18">
+        <f>SUM(G60:G60)</f>
+        <v>45403.3</v>
+      </c>
+      <c r="H61" s="16"/>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="F62" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="19">
+        <f>IF(ISERROR(G61/C61),0,(G61/C61))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" customHeight="1" ht="40">
+      <c r="A65" s="1">
+        <v>1</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C65" s="14">
+        <v>3502763.39</v>
+      </c>
+      <c r="D65" s="14">
+        <v>519.85</v>
+      </c>
+      <c r="E65" s="14">
+        <v>102137.77</v>
+      </c>
+      <c r="F65" s="14">
+        <v>4086.04</v>
+      </c>
+      <c r="G65" s="14">
+        <v>98571.58</v>
+      </c>
+      <c r="H65" s="14"/>
+    </row>
+    <row r="66" spans="1:15" customHeight="1" ht="40">
+      <c r="A66" s="1">
+        <v>2</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66" s="14">
+        <v>3494517.66</v>
+      </c>
+      <c r="D66" s="14">
+        <v>519.85</v>
+      </c>
+      <c r="E66" s="14">
+        <v>28816.95</v>
+      </c>
+      <c r="F66" s="14">
+        <v>1153.54</v>
+      </c>
+      <c r="G66" s="14">
+        <v>28183.26</v>
+      </c>
+      <c r="H66" s="14"/>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="16"/>
+      <c r="B67" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18">
+        <f>SUM(D65:D66)</f>
+        <v>1039.7</v>
+      </c>
+      <c r="E67" s="18">
+        <f>SUM(E65:E66)</f>
+        <v>130954.72</v>
+      </c>
+      <c r="F67" s="18">
+        <f>SUM(F65:F66)</f>
+        <v>5239.58</v>
+      </c>
+      <c r="G67" s="18">
+        <f>SUM(G65:G66)</f>
+        <v>126754.84</v>
+      </c>
+      <c r="H67" s="16"/>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="F68" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" s="19">
+        <f>IF(ISERROR(G67/C67),0,(G67/C67))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" s="10"/>
+      <c r="B70" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70" s="15">
+        <f>C8+C14+C20+C26+C31+C36+C42+C49</f>
+        <v>3315660.84</v>
+      </c>
+      <c r="D70" s="15">
+        <f>D8+D14+D20+D26+D31+D36+D42+D49+D56+D61+D67</f>
+        <v>3397.26</v>
+      </c>
+      <c r="E70" s="15">
+        <f>E8+E14+E20+E26+E31+E36+E42+E49+E56+E61+E67</f>
+        <v>542542.96</v>
+      </c>
+      <c r="F70" s="15">
+        <f>F8+F14+F20+F26+F31+F36+F42+F49+F56+F61+F67</f>
+        <v>18583.67</v>
+      </c>
+      <c r="G70" s="15">
+        <f>G8+G14+G20+G26+G31+G36+G42+G49+G56+G61+G67</f>
+        <v>527356.55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="B74" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="13"/>
+      <c r="B75" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H75" s="13"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="21"/>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="B76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C76" s="1">
+        <v>98</v>
+      </c>
+      <c r="D76" s="14">
+        <v>516.06</v>
+      </c>
+      <c r="E76" s="14">
+        <v>2.87</v>
+      </c>
+      <c r="F76" s="14">
+        <v>4.42</v>
+      </c>
+      <c r="G76" s="14">
+        <v>4.42</v>
+      </c>
+      <c r="H76" s="14"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="22"/>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="B77" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C77" s="1">
+        <v>95</v>
+      </c>
+      <c r="D77" s="14">
+        <v>500.25</v>
+      </c>
+      <c r="E77" s="14">
+        <v>1.44</v>
+      </c>
+      <c r="F77" s="14">
+        <v>1.44</v>
+      </c>
+      <c r="G77" s="14">
+        <v>1.44</v>
+      </c>
+      <c r="H77" s="14"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="22"/>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="B78" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78" s="1">
+        <v>60</v>
+      </c>
+      <c r="D78" s="14">
+        <v>315.98</v>
+      </c>
+      <c r="E78" s="14">
+        <v>1.44</v>
+      </c>
+      <c r="F78" s="14">
+        <v>1.44</v>
+      </c>
+      <c r="G78" s="14">
+        <v>1.44</v>
+      </c>
+      <c r="H78" s="14"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="22"/>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="B79" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" s="1">
+        <v>38</v>
+      </c>
+      <c r="D79" s="14">
+        <v>200.08</v>
+      </c>
+      <c r="E79" s="14">
+        <v>2.87</v>
+      </c>
+      <c r="F79" s="14">
+        <v>2.87</v>
+      </c>
+      <c r="G79" s="14">
+        <v>2.87</v>
+      </c>
+      <c r="H79" s="14"/>
+      <c r="I79" s="22"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="22"/>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="B80" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="14">
-        <v>18447.65</v>
-      </c>
-      <c r="D21" s="14">
-        <v>0</v>
-      </c>
-      <c r="E21" s="14">
-        <v>1590.32</v>
-      </c>
-      <c r="F21" s="14">
-        <v>63.62</v>
-      </c>
-      <c r="G21" s="14">
-        <v>1526.7</v>
-      </c>
-      <c r="H21" s="14"/>
-    </row>
-    <row r="22" spans="1:15" customHeight="1" ht="40">
-      <c r="A22" s="1">
+      <c r="C80" s="1">
+        <v>37</v>
+      </c>
+      <c r="D80" s="14">
+        <v>194.84</v>
+      </c>
+      <c r="E80" s="14">
+        <v>5.75</v>
+      </c>
+      <c r="F80" s="14">
+        <v>5.75</v>
+      </c>
+      <c r="G80" s="14">
+        <v>5.75</v>
+      </c>
+      <c r="H80" s="14"/>
+      <c r="I80" s="22"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="22"/>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="B81" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C81" s="1">
+        <v>18</v>
+      </c>
+      <c r="D81" s="14">
+        <v>93.39</v>
+      </c>
+      <c r="E81" s="14">
+        <v>1.06</v>
+      </c>
+      <c r="F81" s="14">
+        <v>1.06</v>
+      </c>
+      <c r="G81" s="14">
+        <v>1.06</v>
+      </c>
+      <c r="H81" s="14"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="22"/>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="B82" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C82" s="1">
+        <v>5</v>
+      </c>
+      <c r="D82" s="14">
+        <v>26.34</v>
+      </c>
+      <c r="E82" s="14">
+        <v>1.44</v>
+      </c>
+      <c r="F82" s="14">
+        <v>1.44</v>
+      </c>
+      <c r="G82" s="14">
+        <v>1.44</v>
+      </c>
+      <c r="H82" s="14"/>
+      <c r="I82" s="22"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="22"/>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="B83" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" s="1">
+        <v>3</v>
+      </c>
+      <c r="D83" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E83" s="14">
+        <v>4.31</v>
+      </c>
+      <c r="F83" s="14">
+        <v>4.31</v>
+      </c>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="22"/>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" s="1">
+        <v>1</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C88" s="1">
+        <v>102</v>
+      </c>
+      <c r="D88" s="14">
+        <v>537.12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89" s="1">
         <v>2</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="14">
-        <v>23263.5</v>
-      </c>
-      <c r="D22" s="14">
-        <v>0</v>
-      </c>
-      <c r="E22" s="14">
-        <v>2005.48</v>
-      </c>
-      <c r="F22" s="14">
-        <v>80.21</v>
-      </c>
-      <c r="G22" s="14">
-        <v>1925.27</v>
-      </c>
-      <c r="H22" s="14"/>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17" t="s">
+      <c r="B89" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C89" s="1">
+        <v>341</v>
+      </c>
+      <c r="D89" s="1">
+        <v>489.56</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90" s="1">
+        <v>3</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C90" s="1">
+        <v>95</v>
+      </c>
+      <c r="D90" s="1">
+        <v>500.25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91" s="1">
+        <v>4</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C91" s="1">
+        <v>60</v>
+      </c>
+      <c r="D91" s="1">
+        <v>315.98</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92" s="1">
         <v>5</v>
       </c>
-      <c r="C23" s="18">
-        <f>SUM(C21:C22)</f>
-        <v>41711.15</v>
-      </c>
-      <c r="D23" s="18">
-        <f>SUM(D21:D22)</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="18">
-        <f>SUM(E21:E22)</f>
-        <v>3595.8</v>
-      </c>
-      <c r="F23" s="18">
-        <f>SUM(F21:F22)</f>
-        <v>143.83</v>
-      </c>
-      <c r="G23" s="18">
-        <f>SUM(G21:G22)</f>
-        <v>3451.97</v>
-      </c>
-      <c r="H23" s="16"/>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="F24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="19">
-        <f>IF(ISERROR(G23/C23),0,(G23/C23))</f>
-        <v>0.082758926569994</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="12" t="s">
+      <c r="B92" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C92" s="1">
+        <v>38</v>
+      </c>
+      <c r="D92" s="1">
+        <v>200.08</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93" s="1">
+        <v>6</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" s="1">
+        <v>37</v>
+      </c>
+      <c r="D93" s="1">
+        <v>194.84</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94" s="1">
+        <v>7</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C94" s="1">
+        <v>18</v>
+      </c>
+      <c r="D94" s="1">
+        <v>93.39</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95" s="1">
+        <v>8</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C95" s="1">
+        <v>5</v>
+      </c>
+      <c r="D95" s="1">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96" s="1">
+        <v>9</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" s="1">
         <v>3</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" s="13" t="s">
+      <c r="D96" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="A97" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" customHeight="1" ht="40">
-      <c r="A27" s="1">
-        <v>1</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="14">
-        <v>11328.94</v>
-      </c>
-      <c r="D27" s="14">
-        <v>0</v>
-      </c>
-      <c r="E27" s="14">
-        <v>976.63</v>
-      </c>
-      <c r="F27" s="14">
-        <v>39.08</v>
-      </c>
-      <c r="G27" s="14">
-        <v>937.55</v>
-      </c>
-      <c r="H27" s="14"/>
-    </row>
-    <row r="28" spans="1:15" customHeight="1" ht="40">
-      <c r="A28" s="1">
-        <v>2</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="14">
-        <v>36577.15</v>
-      </c>
-      <c r="D28" s="14">
-        <v>10.53</v>
-      </c>
-      <c r="E28" s="14">
-        <v>3153.21</v>
-      </c>
-      <c r="F28" s="14">
-        <v>126.14</v>
-      </c>
-      <c r="G28" s="14">
-        <v>3037.6</v>
-      </c>
-      <c r="H28" s="14"/>
-    </row>
-    <row r="29" spans="1:15" customHeight="1" ht="40">
-      <c r="A29" s="1">
-        <v>3</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="14">
-        <v>2808.47</v>
-      </c>
-      <c r="D29" s="14">
-        <v>10.53</v>
-      </c>
-      <c r="E29" s="14">
-        <v>242.11</v>
-      </c>
-      <c r="F29" s="14">
-        <v>9.69</v>
-      </c>
-      <c r="G29" s="14">
-        <v>242.95</v>
-      </c>
-      <c r="H29" s="14"/>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="18">
-        <f>SUM(C27:C29)</f>
-        <v>50714.56</v>
-      </c>
-      <c r="D30" s="18">
-        <f>SUM(D27:D29)</f>
-        <v>21.06</v>
-      </c>
-      <c r="E30" s="18">
-        <f>SUM(E27:E29)</f>
-        <v>4371.95</v>
-      </c>
-      <c r="F30" s="18">
-        <f>SUM(F27:F29)</f>
-        <v>174.91</v>
-      </c>
-      <c r="G30" s="18">
-        <f>SUM(G27:G29)</f>
-        <v>4218.1</v>
-      </c>
-      <c r="H30" s="16"/>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="F31" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="19">
-        <f>IF(ISERROR(G30/C30),0,(G30/C30))</f>
-        <v>0.083173352977922</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" customHeight="1" ht="40">
-      <c r="A34" s="1">
-        <v>1</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="14">
-        <v>5520.0</v>
-      </c>
-      <c r="D34" s="14">
-        <v>0</v>
-      </c>
-      <c r="E34" s="14">
-        <v>600.0</v>
-      </c>
-      <c r="F34" s="14">
-        <v>24.0</v>
-      </c>
-      <c r="G34" s="14">
-        <v>576.0</v>
-      </c>
-      <c r="H34" s="14"/>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18">
-        <f>SUM(D34:D34)</f>
-        <v>0</v>
-      </c>
-      <c r="E35" s="18">
-        <f>SUM(E34:E34)</f>
-        <v>600</v>
-      </c>
-      <c r="F35" s="18">
-        <f>SUM(F34:F34)</f>
-        <v>24</v>
-      </c>
-      <c r="G35" s="18">
-        <f>SUM(G34:G34)</f>
-        <v>576</v>
-      </c>
-      <c r="H35" s="16"/>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="F36" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="19">
-        <f>IF(ISERROR(G35/C35),0,(G35/C35))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" customHeight="1" ht="40">
-      <c r="A39" s="1">
-        <v>1</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="14">
-        <v>80600.74</v>
-      </c>
-      <c r="D39" s="14">
-        <v>5.74</v>
-      </c>
-      <c r="E39" s="14">
-        <v>2084.49</v>
-      </c>
-      <c r="F39" s="14">
-        <v>83.39</v>
-      </c>
-      <c r="G39" s="14">
-        <v>2006.84</v>
-      </c>
-      <c r="H39" s="14"/>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18">
-        <f>SUM(D39:D39)</f>
-        <v>5.74</v>
-      </c>
-      <c r="E40" s="18">
-        <f>SUM(E39:E39)</f>
-        <v>2084.49</v>
-      </c>
-      <c r="F40" s="18">
-        <f>SUM(F39:F39)</f>
-        <v>83.39</v>
-      </c>
-      <c r="G40" s="18">
-        <f>SUM(G39:G39)</f>
-        <v>2006.84</v>
-      </c>
-      <c r="H40" s="16"/>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="F41" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="19">
-        <f>IF(ISERROR(G40/C40),0,(G40/C40))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" customHeight="1" ht="40">
-      <c r="A44" s="1">
-        <v>1</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="14">
-        <v>112138.71</v>
-      </c>
-      <c r="D44" s="14">
-        <v>5.74</v>
-      </c>
-      <c r="E44" s="14">
-        <v>3298.53</v>
-      </c>
-      <c r="F44" s="14">
-        <v>131.95</v>
-      </c>
-      <c r="G44" s="14">
-        <v>3172.32</v>
-      </c>
-      <c r="H44" s="14"/>
-    </row>
-    <row r="45" spans="1:15" customHeight="1" ht="40">
-      <c r="A45" s="1">
-        <v>2</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" s="14">
-        <v>112138.71</v>
-      </c>
-      <c r="D45" s="14">
-        <v>5.74</v>
-      </c>
-      <c r="E45" s="14">
-        <v>952.35</v>
-      </c>
-      <c r="F45" s="14">
-        <v>38.09</v>
-      </c>
-      <c r="G45" s="14">
-        <v>920.0</v>
-      </c>
-      <c r="H45" s="14"/>
-    </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="16"/>
-      <c r="B46" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18">
-        <f>SUM(D44:D45)</f>
-        <v>11.48</v>
-      </c>
-      <c r="E46" s="18">
-        <f>SUM(E44:E45)</f>
-        <v>4250.88</v>
-      </c>
-      <c r="F46" s="18">
-        <f>SUM(F44:F45)</f>
-        <v>170.04</v>
-      </c>
-      <c r="G46" s="18">
-        <f>SUM(G44:G45)</f>
-        <v>4092.32</v>
-      </c>
-      <c r="H46" s="16"/>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="F47" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="19">
-        <f>IF(ISERROR(G46/C46),0,(G46/C46))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C49" s="15">
-        <f>C7+C12+C17+C23+C30</f>
-        <v>106783.71</v>
-      </c>
-      <c r="D49" s="15">
-        <f>D7+D12+D17+D23+D30+D35+D40+D46</f>
-        <v>38.28</v>
-      </c>
-      <c r="E49" s="15">
-        <f>E7+E12+E17+E23+E30+E35+E40+E46</f>
-        <v>17848.81</v>
-      </c>
-      <c r="F49" s="15">
-        <f>F7+F12+F17+F23+F30+F35+F40+F46</f>
-        <v>603.32</v>
-      </c>
-      <c r="G49" s="15">
-        <f>G7+G12+G17+G23+G30+G35+G40+G46</f>
-        <v>17283.77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
-      <c r="B53" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G54" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H54" s="13"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
-    </row>
-    <row r="55" spans="1:15">
-      <c r="B55" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C55" s="1">
-        <v>2</v>
-      </c>
-      <c r="D55" s="14">
-        <v>10.53</v>
-      </c>
-      <c r="E55" s="14">
-        <v>2.87</v>
-      </c>
-      <c r="F55" s="14">
-        <v>2.87</v>
-      </c>
-      <c r="G55" s="14">
-        <v>2.87</v>
-      </c>
-      <c r="H55" s="14"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="22"/>
-    </row>
-    <row r="56" spans="1:15">
-      <c r="B56" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C56" s="1">
-        <v>2</v>
-      </c>
-      <c r="D56" s="14">
-        <v>10.53</v>
-      </c>
-      <c r="E56" s="14">
-        <v>2.87</v>
-      </c>
-      <c r="F56" s="14">
-        <v>2.87</v>
-      </c>
-      <c r="G56" s="14">
-        <v>2.87</v>
-      </c>
-      <c r="H56" s="14"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-    </row>
-    <row r="60" spans="1:15">
-      <c r="A60" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
-      <c r="A61" s="1">
-        <v>1</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C61" s="1">
-        <v>2</v>
-      </c>
-      <c r="D61" s="14">
-        <v>10.53</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
-      <c r="A62" s="1">
-        <v>2</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C62" s="1">
-        <v>4</v>
-      </c>
-      <c r="D62" s="1">
-        <v>5.74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
-      <c r="A63" s="1">
-        <v>3</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C63" s="1">
-        <v>2</v>
-      </c>
-      <c r="D63" s="1">
-        <v>10.53</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15">
-      <c r="A64" s="1">
-        <v>4</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C64" s="1">
-        <v>4</v>
-      </c>
-      <c r="D64" s="1">
-        <v>5.74</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
-      <c r="A65" s="1">
-        <v>5</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C65" s="1">
-        <v>4</v>
-      </c>
-      <c r="D65" s="1">
-        <v>5.74</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
-      <c r="A66" s="16"/>
-      <c r="B66" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C66" s="17">
-        <f>C61+C63</f>
-        <v>4</v>
-      </c>
-      <c r="D66" s="18">
-        <f>D61+D62+D63+D64+D65</f>
-        <v>38.28</v>
-      </c>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="23"/>
-      <c r="J66" s="23"/>
-      <c r="K66" s="23"/>
+      <c r="B97" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C97" s="1">
+        <v>358</v>
+      </c>
+      <c r="D97" s="1">
+        <v>515.54</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98" s="1">
+        <v>11</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C98" s="1">
+        <v>358</v>
+      </c>
+      <c r="D98" s="1">
+        <v>515.54</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99" s="16"/>
+      <c r="B99" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C99" s="17">
+        <f>C88+C90+C91+C92+C93+C94+C95+C96</f>
+        <v>358</v>
+      </c>
+      <c r="D99" s="18">
+        <f>D88+D89+D90+D91+D92+D93+D94+D95+D96+D97+D98</f>
+        <v>3388.64</v>
+      </c>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="23"/>
+      <c r="J99" s="23"/>
+      <c r="K99" s="23"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -1792,7 +2456,7 @@
   <sheetData>
     <row r="1" spans="1:26" customHeight="1" ht="35">
       <c r="A1" s="9" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="25"/>
@@ -1804,7 +2468,7 @@
     </row>
     <row r="2" spans="1:26" customHeight="1" ht="25">
       <c r="A2" s="8" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="25"/>
@@ -1816,22 +2480,22 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="20" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
@@ -1856,7 +2520,7 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B6" s="22">
         <v>0</v>
@@ -1876,56 +2540,56 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B7" s="22">
-        <v>15557.76</v>
+        <v>476087.08</v>
       </c>
       <c r="C7">
         <v>3.0</v>
       </c>
       <c r="D7" s="22">
-        <v>466.72</v>
+        <v>14282.39</v>
       </c>
       <c r="E7">
         <v>1.0</v>
       </c>
       <c r="F7" s="22">
-        <v>155.57</v>
+        <v>4760.9</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B8" s="22">
-        <v>0</v>
+        <v>17166.18</v>
       </c>
       <c r="C8">
         <v>0.0</v>
       </c>
       <c r="D8" s="22">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E8">
         <v>0.0</v>
       </c>
       <c r="F8" s="22">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B9" s="22">
-        <v>1436.21</v>
+        <v>112675.37</v>
       </c>
       <c r="C9">
         <v>3.0</v>
       </c>
       <c r="D9" s="22">
-        <v>43.09</v>
+        <v>3380.25</v>
       </c>
       <c r="E9">
         <v>0.0</v>
@@ -1936,47 +2600,47 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B10" s="22">
-        <v>35957.92</v>
+        <v>1011140.26</v>
       </c>
       <c r="C10">
         <v>3.5</v>
       </c>
       <c r="D10" s="22">
-        <v>1258.54</v>
+        <v>35390.3</v>
       </c>
       <c r="E10">
         <v>1.0</v>
       </c>
       <c r="F10" s="22">
-        <v>359.6</v>
+        <v>10040.53</v>
       </c>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B11" s="22">
-        <v>43719.47</v>
+        <v>1401530.18</v>
       </c>
       <c r="C11">
         <v>3.5</v>
       </c>
       <c r="D11" s="22">
-        <v>1530.18</v>
+        <v>49054.05</v>
       </c>
       <c r="E11">
         <v>1.0</v>
       </c>
       <c r="F11" s="22">
-        <v>437.18</v>
+        <v>14015.52</v>
       </c>
     </row>
     <row r="12" spans="1:26">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B12" s="22">
         <v>0</v>
@@ -1996,21 +2660,21 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="26" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B13" s="27">
         <f>SUM(B6:B12)</f>
-        <v>96671.36</v>
+        <v>3018599.07</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="27">
         <f>SUM(D6:D12)</f>
-        <v>3298.53</v>
+        <v>102106.99</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="27">
         <f>SUM(F6:F12)</f>
-        <v>952.35</v>
+        <v>28816.95</v>
       </c>
     </row>
   </sheetData>
